--- a/files/separadas/repeat_p19.xlsx
+++ b/files/separadas/repeat_p19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="355">
   <si>
     <t>p19_nom</t>
   </si>
@@ -109,7 +109,10 @@
     <t>c3</t>
   </si>
   <si>
-    <t>nota_iniciativa</t>
+    <t>s_i</t>
+  </si>
+  <si>
+    <t>c4</t>
   </si>
   <si>
     <t>La falta de articulación por parte de la instituciones del distrito</t>
@@ -1466,13 +1469,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF121"/>
+  <dimension ref="A1:AG121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1569,13 +1572,16 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1593,16 +1599,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -1611,13 +1617,13 @@
         <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Z2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1631,13 +1637,16 @@
       <c r="AF2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1655,19 +1664,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T3">
         <v>4</v>
@@ -1676,13 +1685,13 @@
         <v>9</v>
       </c>
       <c r="V3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Z3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1696,13 +1705,16 @@
       <c r="AF3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1720,16 +1732,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T4">
         <v>6</v>
@@ -1738,13 +1750,13 @@
         <v>12</v>
       </c>
       <c r="V4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W4" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1758,13 +1770,16 @@
       <c r="AF4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1782,16 +1797,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T5">
         <v>6</v>
@@ -1800,13 +1815,13 @@
         <v>12</v>
       </c>
       <c r="V5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W5" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1820,13 +1835,16 @@
       <c r="AF5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1844,16 +1862,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T6">
         <v>6</v>
@@ -1862,13 +1880,13 @@
         <v>12</v>
       </c>
       <c r="V6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W6" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1882,13 +1900,16 @@
       <c r="AF6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1906,16 +1927,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T7">
         <v>6</v>
@@ -1924,13 +1945,13 @@
         <v>12</v>
       </c>
       <c r="V7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W7" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1944,13 +1965,16 @@
       <c r="AF7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1968,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T8">
         <v>7</v>
@@ -1986,13 +2010,13 @@
         <v>13</v>
       </c>
       <c r="V8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W8" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2006,13 +2030,16 @@
       <c r="AF8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2030,16 +2057,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T9">
         <v>8</v>
@@ -2048,13 +2075,13 @@
         <v>14</v>
       </c>
       <c r="V9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W9" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Z9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2068,13 +2095,16 @@
       <c r="AF9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2092,16 +2122,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R10">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T10">
         <v>9</v>
@@ -2110,13 +2140,13 @@
         <v>15</v>
       </c>
       <c r="V10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W10" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2130,13 +2160,16 @@
       <c r="AF10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2154,16 +2187,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R11">
         <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T11">
         <v>9</v>
@@ -2172,13 +2205,13 @@
         <v>15</v>
       </c>
       <c r="V11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W11" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2192,13 +2225,16 @@
       <c r="AF11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2216,16 +2252,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R12">
         <v>11</v>
       </c>
       <c r="S12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T12">
         <v>9</v>
@@ -2234,13 +2270,13 @@
         <v>15</v>
       </c>
       <c r="V12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2254,13 +2290,16 @@
       <c r="AF12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2278,16 +2317,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T13">
         <v>9</v>
@@ -2296,13 +2335,13 @@
         <v>15</v>
       </c>
       <c r="V13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2316,13 +2355,16 @@
       <c r="AF13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2340,16 +2382,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R14">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T14">
         <v>10</v>
@@ -2358,13 +2400,13 @@
         <v>16</v>
       </c>
       <c r="V14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W14" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2378,13 +2420,16 @@
       <c r="AF14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2402,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R15">
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T15">
         <v>10</v>
@@ -2423,13 +2468,13 @@
         <v>16</v>
       </c>
       <c r="V15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W15" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2443,13 +2488,16 @@
       <c r="AF15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2467,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R16">
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T16">
         <v>11</v>
@@ -2485,13 +2533,13 @@
         <v>17</v>
       </c>
       <c r="V16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2505,13 +2553,16 @@
       <c r="AF16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2529,16 +2580,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R17">
         <v>16</v>
       </c>
       <c r="S17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T17">
         <v>11</v>
@@ -2547,13 +2598,13 @@
         <v>17</v>
       </c>
       <c r="V17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2567,13 +2618,16 @@
       <c r="AF17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2591,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R18">
         <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T18">
         <v>11</v>
@@ -2609,13 +2663,13 @@
         <v>17</v>
       </c>
       <c r="V18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z18" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2629,13 +2683,16 @@
       <c r="AF18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2653,16 +2710,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R19">
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T19">
         <v>11</v>
@@ -2671,13 +2728,13 @@
         <v>17</v>
       </c>
       <c r="V19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2691,13 +2748,16 @@
       <c r="AF19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2715,16 +2775,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R20">
         <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T20">
         <v>11</v>
@@ -2733,13 +2793,13 @@
         <v>17</v>
       </c>
       <c r="V20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2753,13 +2813,16 @@
       <c r="AF20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2777,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R21">
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T21">
         <v>11</v>
@@ -2795,13 +2858,13 @@
         <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z21" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -2815,13 +2878,16 @@
       <c r="AF21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2839,16 +2905,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R22">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T22">
         <v>11</v>
@@ -2857,13 +2923,13 @@
         <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -2877,13 +2943,16 @@
       <c r="AF22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2901,16 +2970,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R23">
         <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T23">
         <v>12</v>
@@ -2919,13 +2988,13 @@
         <v>18</v>
       </c>
       <c r="V23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W23" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Z23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -2939,13 +3008,16 @@
       <c r="AF23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2963,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R24">
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T24">
         <v>13</v>
@@ -2981,13 +3053,13 @@
         <v>20</v>
       </c>
       <c r="V24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W24" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z24" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3001,13 +3073,16 @@
       <c r="AF24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3025,16 +3100,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R25">
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T25">
         <v>14</v>
@@ -3043,13 +3118,13 @@
         <v>21</v>
       </c>
       <c r="V25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W25" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Z25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3063,13 +3138,16 @@
       <c r="AF25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3087,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R26">
         <v>25</v>
       </c>
       <c r="S26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T26">
         <v>15</v>
@@ -3105,13 +3183,13 @@
         <v>22</v>
       </c>
       <c r="V26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W26" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3125,13 +3203,16 @@
       <c r="AF26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3149,19 +3230,19 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R27">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T27">
         <v>15</v>
@@ -3170,13 +3251,13 @@
         <v>22</v>
       </c>
       <c r="V27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W27" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3190,13 +3271,16 @@
       <c r="AF27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3214,16 +3298,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R28">
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T28">
         <v>16</v>
@@ -3232,13 +3316,13 @@
         <v>25</v>
       </c>
       <c r="V28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W28" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3252,13 +3336,16 @@
       <c r="AF28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3276,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R29">
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T29">
         <v>17</v>
@@ -3294,13 +3381,13 @@
         <v>26</v>
       </c>
       <c r="V29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W29" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3314,13 +3401,16 @@
       <c r="AF29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3338,16 +3428,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R30">
         <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T30">
         <v>18</v>
@@ -3356,13 +3446,13 @@
         <v>27</v>
       </c>
       <c r="V30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W30" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Z30" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3376,13 +3466,16 @@
       <c r="AF30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3400,19 +3493,19 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R31">
         <v>30</v>
       </c>
       <c r="S31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T31">
         <v>19</v>
@@ -3421,13 +3514,13 @@
         <v>30</v>
       </c>
       <c r="V31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W31" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3441,13 +3534,16 @@
       <c r="AF31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3465,19 +3561,19 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R32">
         <v>31</v>
       </c>
       <c r="S32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T32">
         <v>19</v>
@@ -3486,13 +3582,13 @@
         <v>30</v>
       </c>
       <c r="V32" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W32" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z32" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -3506,13 +3602,16 @@
       <c r="AF32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AG32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3530,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R33">
         <v>32</v>
       </c>
       <c r="S33" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T33">
         <v>19</v>
@@ -3548,13 +3647,13 @@
         <v>30</v>
       </c>
       <c r="V33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W33" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z33" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -3568,13 +3667,16 @@
       <c r="AF33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AG33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3592,19 +3694,19 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R34">
         <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T34">
         <v>19</v>
@@ -3613,13 +3715,13 @@
         <v>30</v>
       </c>
       <c r="V34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W34" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -3633,13 +3735,16 @@
       <c r="AF34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AG34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3657,19 +3762,19 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R35">
         <v>34</v>
       </c>
       <c r="S35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T35">
         <v>19</v>
@@ -3678,13 +3783,13 @@
         <v>30</v>
       </c>
       <c r="V35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W35" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -3698,13 +3803,16 @@
       <c r="AF35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AG35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3722,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R36">
         <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T36">
         <v>21</v>
@@ -3740,13 +3848,13 @@
         <v>34</v>
       </c>
       <c r="V36" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W36" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z36" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -3760,13 +3868,16 @@
       <c r="AF36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AG36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3784,16 +3895,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R37">
         <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T37">
         <v>22</v>
@@ -3802,13 +3913,13 @@
         <v>37</v>
       </c>
       <c r="V37" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z37" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -3822,13 +3933,16 @@
       <c r="AF37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AG37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3846,16 +3960,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R38">
         <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T38">
         <v>22</v>
@@ -3864,13 +3978,13 @@
         <v>37</v>
       </c>
       <c r="V38" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z38" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -3884,13 +3998,16 @@
       <c r="AF38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AG38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3908,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R39">
         <v>38</v>
       </c>
       <c r="S39" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T39">
         <v>22</v>
@@ -3926,13 +4043,13 @@
         <v>37</v>
       </c>
       <c r="V39" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W39" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z39" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -3946,13 +4063,16 @@
       <c r="AF39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="AG39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3970,16 +4090,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R40">
         <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T40">
         <v>22</v>
@@ -3988,13 +4108,13 @@
         <v>37</v>
       </c>
       <c r="V40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W40" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z40" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -4008,13 +4128,16 @@
       <c r="AF40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:32">
+      <c r="AG40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4032,16 +4155,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R41">
         <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T41">
         <v>22</v>
@@ -4050,13 +4173,13 @@
         <v>37</v>
       </c>
       <c r="V41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W41" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z41" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -4070,13 +4193,16 @@
       <c r="AF41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="AG41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4094,16 +4220,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R42">
         <v>41</v>
       </c>
       <c r="S42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T42">
         <v>22</v>
@@ -4112,13 +4238,13 @@
         <v>37</v>
       </c>
       <c r="V42" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W42" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z42" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -4132,13 +4258,16 @@
       <c r="AF42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:32">
+      <c r="AG42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4156,16 +4285,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R43">
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T43">
         <v>22</v>
@@ -4174,13 +4303,13 @@
         <v>37</v>
       </c>
       <c r="V43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W43" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z43" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -4194,13 +4323,16 @@
       <c r="AF43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AG43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4218,16 +4350,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R44">
         <v>43</v>
       </c>
       <c r="S44" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T44">
         <v>22</v>
@@ -4236,13 +4368,13 @@
         <v>37</v>
       </c>
       <c r="V44" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W44" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -4256,13 +4388,16 @@
       <c r="AF44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:32">
+      <c r="AG44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4280,16 +4415,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R45">
         <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T45">
         <v>23</v>
@@ -4298,13 +4433,13 @@
         <v>38</v>
       </c>
       <c r="V45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="W45" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z45" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -4318,13 +4453,16 @@
       <c r="AF45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AG45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4342,16 +4480,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R46">
         <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T46">
         <v>23</v>
@@ -4360,13 +4498,13 @@
         <v>38</v>
       </c>
       <c r="V46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="W46" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z46" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -4380,13 +4518,16 @@
       <c r="AF46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AG46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4404,16 +4545,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R47">
         <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T47">
         <v>23</v>
@@ -4422,13 +4563,13 @@
         <v>38</v>
       </c>
       <c r="V47" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="W47" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z47" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -4442,13 +4583,16 @@
       <c r="AF47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:32">
+      <c r="AG47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4466,16 +4610,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R48">
         <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T48">
         <v>23</v>
@@ -4484,13 +4628,13 @@
         <v>38</v>
       </c>
       <c r="V48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="W48" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z48" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -4504,13 +4648,16 @@
       <c r="AF48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="AG48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4528,16 +4675,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R49">
         <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T49">
         <v>24</v>
@@ -4546,13 +4693,13 @@
         <v>51</v>
       </c>
       <c r="V49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W49" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z49" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -4566,13 +4713,16 @@
       <c r="AF49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:32">
+      <c r="AG49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4590,19 +4740,19 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R50">
         <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T50">
         <v>24</v>
@@ -4611,13 +4761,13 @@
         <v>51</v>
       </c>
       <c r="V50" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W50" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z50" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -4631,13 +4781,16 @@
       <c r="AF50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:32">
+      <c r="AG50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4655,19 +4808,19 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R51">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T51">
         <v>24</v>
@@ -4676,13 +4829,13 @@
         <v>51</v>
       </c>
       <c r="V51" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W51" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -4696,13 +4849,16 @@
       <c r="AF51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:32">
+      <c r="AG51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4720,19 +4876,19 @@
         <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R52">
         <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T52">
         <v>27</v>
@@ -4741,13 +4897,13 @@
         <v>56</v>
       </c>
       <c r="V52" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="W52" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z52" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -4761,13 +4917,16 @@
       <c r="AF52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:32">
+      <c r="AG52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4785,19 +4944,19 @@
         <v>0</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R53">
         <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T53">
         <v>27</v>
@@ -4806,13 +4965,13 @@
         <v>56</v>
       </c>
       <c r="V53" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="W53" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -4826,13 +4985,16 @@
       <c r="AF53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:32">
+      <c r="AG53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4850,16 +5012,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R54">
         <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T54">
         <v>27</v>
@@ -4868,13 +5030,13 @@
         <v>56</v>
       </c>
       <c r="V54" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="W54" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z54" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -4888,13 +5050,16 @@
       <c r="AF54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:32">
+      <c r="AG54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4912,16 +5077,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R55">
         <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T55">
         <v>28</v>
@@ -4930,13 +5095,13 @@
         <v>57</v>
       </c>
       <c r="V55" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="W55" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z55" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -4950,13 +5115,16 @@
       <c r="AF55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:32">
+      <c r="AG55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4974,16 +5142,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R56">
         <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T56">
         <v>29</v>
@@ -4992,13 +5160,13 @@
         <v>58</v>
       </c>
       <c r="V56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="W56" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z56" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -5012,13 +5180,16 @@
       <c r="AF56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="AG56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5036,16 +5207,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R57">
         <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T57">
         <v>29</v>
@@ -5054,13 +5225,13 @@
         <v>58</v>
       </c>
       <c r="V57" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="W57" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z57" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -5074,13 +5245,16 @@
       <c r="AF57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:32">
+      <c r="AG57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5098,16 +5272,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R58">
         <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T58">
         <v>30</v>
@@ -5116,13 +5290,13 @@
         <v>59</v>
       </c>
       <c r="V58" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="W58" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -5136,13 +5310,16 @@
       <c r="AF58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="AG58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5160,16 +5337,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R59">
         <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T59">
         <v>30</v>
@@ -5178,13 +5355,13 @@
         <v>59</v>
       </c>
       <c r="V59" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="W59" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z59" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -5198,13 +5375,16 @@
       <c r="AF59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:32">
+      <c r="AG59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5222,16 +5402,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R60">
         <v>59</v>
       </c>
       <c r="S60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T60">
         <v>30</v>
@@ -5240,13 +5420,13 @@
         <v>59</v>
       </c>
       <c r="V60" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="W60" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z60" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -5260,13 +5440,16 @@
       <c r="AF60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:32">
+      <c r="AG60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5284,16 +5467,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R61">
         <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -5302,13 +5485,13 @@
         <v>59</v>
       </c>
       <c r="V61" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="W61" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z61" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -5322,13 +5505,16 @@
       <c r="AF61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:32">
+      <c r="AG61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -5346,16 +5532,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J62" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R62">
         <v>61</v>
       </c>
       <c r="S62" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T62">
         <v>31</v>
@@ -5364,13 +5550,13 @@
         <v>60</v>
       </c>
       <c r="V62" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="W62" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z62" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -5384,13 +5570,16 @@
       <c r="AF62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:32">
+      <c r="AG62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5408,16 +5597,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R63">
         <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T63">
         <v>32</v>
@@ -5426,13 +5615,13 @@
         <v>61</v>
       </c>
       <c r="V63" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W63" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z63" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -5446,13 +5635,16 @@
       <c r="AF63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:32">
+      <c r="AG63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5470,16 +5662,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R64">
         <v>63</v>
       </c>
       <c r="S64" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T64">
         <v>32</v>
@@ -5488,13 +5680,13 @@
         <v>61</v>
       </c>
       <c r="V64" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W64" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z64" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -5508,13 +5700,16 @@
       <c r="AF64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:32">
+      <c r="AG64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5532,16 +5727,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R65">
         <v>64</v>
       </c>
       <c r="S65" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T65">
         <v>33</v>
@@ -5550,13 +5745,13 @@
         <v>63</v>
       </c>
       <c r="V65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W65" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z65" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -5570,13 +5765,16 @@
       <c r="AF65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:32">
+      <c r="AG65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5594,16 +5792,16 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R66">
         <v>65</v>
       </c>
       <c r="S66" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T66">
         <v>33</v>
@@ -5612,13 +5810,13 @@
         <v>63</v>
       </c>
       <c r="V66" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W66" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z66" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -5632,13 +5830,16 @@
       <c r="AF66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:32">
+      <c r="AG66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -5656,16 +5857,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R67">
         <v>66</v>
       </c>
       <c r="S67" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T67">
         <v>33</v>
@@ -5674,13 +5875,13 @@
         <v>63</v>
       </c>
       <c r="V67" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W67" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z67" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -5694,13 +5895,16 @@
       <c r="AF67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:32">
+      <c r="AG67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -5718,16 +5922,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R68">
         <v>67</v>
       </c>
       <c r="S68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T68">
         <v>33</v>
@@ -5736,13 +5940,13 @@
         <v>63</v>
       </c>
       <c r="V68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W68" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z68" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -5756,13 +5960,16 @@
       <c r="AF68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:32">
+      <c r="AG68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -5780,16 +5987,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R69">
         <v>68</v>
       </c>
       <c r="S69" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T69">
         <v>33</v>
@@ -5798,13 +6005,13 @@
         <v>63</v>
       </c>
       <c r="V69" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W69" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z69" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -5818,13 +6025,16 @@
       <c r="AF69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:32">
+      <c r="AG69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5842,16 +6052,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J70" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R70">
         <v>69</v>
       </c>
       <c r="S70" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T70">
         <v>33</v>
@@ -5860,13 +6070,13 @@
         <v>63</v>
       </c>
       <c r="V70" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W70" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z70" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -5880,13 +6090,16 @@
       <c r="AF70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:32">
+      <c r="AG70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -5904,16 +6117,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J71" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R71">
         <v>70</v>
       </c>
       <c r="S71" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T71">
         <v>33</v>
@@ -5922,13 +6135,13 @@
         <v>63</v>
       </c>
       <c r="V71" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W71" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z71" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -5942,13 +6155,16 @@
       <c r="AF71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:32">
+      <c r="AG71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -5966,16 +6182,16 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R72">
         <v>71</v>
       </c>
       <c r="S72" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T72">
         <v>33</v>
@@ -5984,13 +6200,13 @@
         <v>63</v>
       </c>
       <c r="V72" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W72" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z72" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -6004,13 +6220,16 @@
       <c r="AF72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:32">
+      <c r="AG72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6028,16 +6247,16 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J73" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R73">
         <v>72</v>
       </c>
       <c r="S73" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T73">
         <v>34</v>
@@ -6046,13 +6265,13 @@
         <v>64</v>
       </c>
       <c r="V73" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="W73" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z73" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -6066,13 +6285,16 @@
       <c r="AF73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:32">
+      <c r="AG73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -6090,16 +6312,16 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R74">
         <v>73</v>
       </c>
       <c r="S74" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T74">
         <v>34</v>
@@ -6108,13 +6330,13 @@
         <v>64</v>
       </c>
       <c r="V74" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="W74" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z74" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -6128,13 +6350,16 @@
       <c r="AF74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:32">
+      <c r="AG74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6152,16 +6377,16 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J75" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R75">
         <v>74</v>
       </c>
       <c r="S75" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T75">
         <v>36</v>
@@ -6170,13 +6395,13 @@
         <v>77</v>
       </c>
       <c r="V75" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W75" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z75" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -6190,13 +6415,16 @@
       <c r="AF75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:32">
+      <c r="AG75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6214,16 +6442,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J76" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R76">
         <v>75</v>
       </c>
       <c r="S76" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T76">
         <v>37</v>
@@ -6232,13 +6460,13 @@
         <v>78</v>
       </c>
       <c r="V76" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="W76" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z76" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -6252,13 +6480,16 @@
       <c r="AF76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:32">
+      <c r="AG76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6276,16 +6507,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J77" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R77">
         <v>76</v>
       </c>
       <c r="S77" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T77">
         <v>37</v>
@@ -6294,13 +6525,13 @@
         <v>78</v>
       </c>
       <c r="V77" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="W77" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z77" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -6314,13 +6545,16 @@
       <c r="AF77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:32">
+      <c r="AG77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -6338,16 +6572,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J78" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R78">
         <v>77</v>
       </c>
       <c r="S78" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T78">
         <v>37</v>
@@ -6356,13 +6590,13 @@
         <v>78</v>
       </c>
       <c r="V78" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="W78" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z78" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -6376,13 +6610,16 @@
       <c r="AF78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:32">
+      <c r="AG78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -6400,16 +6637,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R79">
         <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T79">
         <v>37</v>
@@ -6418,13 +6655,13 @@
         <v>78</v>
       </c>
       <c r="V79" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="W79" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z79" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -6438,13 +6675,16 @@
       <c r="AF79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:32">
+      <c r="AG79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -6462,16 +6702,16 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J80" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R80">
         <v>79</v>
       </c>
       <c r="S80" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T80">
         <v>39</v>
@@ -6480,13 +6720,13 @@
         <v>81</v>
       </c>
       <c r="V80" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="W80" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z80" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -6500,13 +6740,16 @@
       <c r="AF80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:32">
+      <c r="AG80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -6524,16 +6767,16 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J81" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R81">
         <v>80</v>
       </c>
       <c r="S81" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T81">
         <v>40</v>
@@ -6542,13 +6785,13 @@
         <v>82</v>
       </c>
       <c r="V81" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="W81" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z81" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -6562,13 +6805,16 @@
       <c r="AF81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:32">
+      <c r="AG81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -6586,16 +6832,16 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J82" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R82">
         <v>81</v>
       </c>
       <c r="S82" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T82">
         <v>42</v>
@@ -6604,13 +6850,13 @@
         <v>84</v>
       </c>
       <c r="V82" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="W82" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z82" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -6624,13 +6870,16 @@
       <c r="AF82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:32">
+      <c r="AG82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -6648,16 +6897,16 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J83" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="R83">
         <v>82</v>
       </c>
       <c r="S83" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T83">
         <v>44</v>
@@ -6666,13 +6915,13 @@
         <v>87</v>
       </c>
       <c r="V83" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W83" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z83" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -6686,13 +6935,16 @@
       <c r="AF83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:32">
+      <c r="AG83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -6710,16 +6962,16 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J84" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R84">
         <v>83</v>
       </c>
       <c r="S84" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T84">
         <v>44</v>
@@ -6728,13 +6980,13 @@
         <v>87</v>
       </c>
       <c r="V84" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W84" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z84" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -6748,13 +7000,16 @@
       <c r="AF84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:32">
+      <c r="AG84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -6772,16 +7027,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J85" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R85">
         <v>84</v>
       </c>
       <c r="S85" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T85">
         <v>44</v>
@@ -6790,13 +7045,13 @@
         <v>87</v>
       </c>
       <c r="V85" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W85" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z85" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -6810,13 +7065,16 @@
       <c r="AF85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:32">
+      <c r="AG85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -6834,19 +7092,19 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I86" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J86" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R86">
         <v>85</v>
       </c>
       <c r="S86" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T86">
         <v>45</v>
@@ -6855,13 +7113,13 @@
         <v>88</v>
       </c>
       <c r="V86" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="W86" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z86" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -6875,13 +7133,16 @@
       <c r="AF86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:32">
+      <c r="AG86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33">
       <c r="A87" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -6899,19 +7160,19 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I87" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J87" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R87">
         <v>86</v>
       </c>
       <c r="S87" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T87">
         <v>45</v>
@@ -6920,13 +7181,13 @@
         <v>88</v>
       </c>
       <c r="V87" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="W87" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z87" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -6940,13 +7201,16 @@
       <c r="AF87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:32">
+      <c r="AG87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -6964,16 +7228,16 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J88" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R88">
         <v>87</v>
       </c>
       <c r="S88" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T88">
         <v>46</v>
@@ -6982,13 +7246,13 @@
         <v>90</v>
       </c>
       <c r="V88" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="W88" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z88" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -7002,13 +7266,16 @@
       <c r="AF88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:32">
+      <c r="AG88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7026,16 +7293,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R89">
         <v>88</v>
       </c>
       <c r="S89" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T89">
         <v>46</v>
@@ -7044,13 +7311,13 @@
         <v>90</v>
       </c>
       <c r="V89" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="W89" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z89" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -7064,13 +7331,16 @@
       <c r="AF89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:32">
+      <c r="AG89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7088,16 +7358,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R90">
         <v>89</v>
       </c>
       <c r="S90" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T90">
         <v>47</v>
@@ -7106,13 +7376,13 @@
         <v>91</v>
       </c>
       <c r="V90" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="W90" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z90" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -7126,13 +7396,16 @@
       <c r="AF90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:32">
+      <c r="AG90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7150,16 +7423,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J91" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R91">
         <v>90</v>
       </c>
       <c r="S91" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T91">
         <v>47</v>
@@ -7168,13 +7441,13 @@
         <v>91</v>
       </c>
       <c r="V91" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="W91" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z91" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -7188,13 +7461,16 @@
       <c r="AF91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:32">
+      <c r="AG91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33">
       <c r="A92" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -7212,19 +7488,19 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I92" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J92" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R92">
         <v>91</v>
       </c>
       <c r="S92" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T92">
         <v>49</v>
@@ -7233,13 +7509,13 @@
         <v>93</v>
       </c>
       <c r="V92" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="W92" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z92" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -7253,13 +7529,16 @@
       <c r="AF92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:32">
+      <c r="AG92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -7277,19 +7556,19 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I93" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J93" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R93">
         <v>92</v>
       </c>
       <c r="S93" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T93">
         <v>49</v>
@@ -7298,13 +7577,13 @@
         <v>93</v>
       </c>
       <c r="V93" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="W93" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z93" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -7318,13 +7597,16 @@
       <c r="AF93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:32">
+      <c r="AG93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33">
       <c r="A94" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B94" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7342,16 +7624,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R94">
         <v>93</v>
       </c>
       <c r="S94" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T94">
         <v>50</v>
@@ -7360,13 +7642,13 @@
         <v>94</v>
       </c>
       <c r="V94" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="W94" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z94" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -7380,13 +7662,16 @@
       <c r="AF94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:32">
+      <c r="AG94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33">
       <c r="A95" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B95" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7404,16 +7689,16 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J95" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R95">
         <v>94</v>
       </c>
       <c r="S95" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T95">
         <v>51</v>
@@ -7422,13 +7707,13 @@
         <v>95</v>
       </c>
       <c r="V95" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W95" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z95" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -7442,13 +7727,16 @@
       <c r="AF95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:32">
+      <c r="AG95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33">
       <c r="A96" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7466,16 +7754,16 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J96" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R96">
         <v>95</v>
       </c>
       <c r="S96" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T96">
         <v>51</v>
@@ -7484,13 +7772,13 @@
         <v>95</v>
       </c>
       <c r="V96" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W96" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z96" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -7504,13 +7792,16 @@
       <c r="AF96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:32">
+      <c r="AG96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B97" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -7528,16 +7819,16 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R97">
         <v>96</v>
       </c>
       <c r="S97" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T97">
         <v>51</v>
@@ -7546,13 +7837,13 @@
         <v>95</v>
       </c>
       <c r="V97" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W97" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z97" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -7566,13 +7857,16 @@
       <c r="AF97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:32">
+      <c r="AG97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33">
       <c r="A98" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7590,16 +7884,16 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J98" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="R98">
         <v>97</v>
       </c>
       <c r="S98" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T98">
         <v>51</v>
@@ -7608,13 +7902,13 @@
         <v>95</v>
       </c>
       <c r="V98" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W98" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z98" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -7628,13 +7922,16 @@
       <c r="AF98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:32">
+      <c r="AG98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B99" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7652,16 +7949,16 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J99" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R99">
         <v>98</v>
       </c>
       <c r="S99" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T99">
         <v>51</v>
@@ -7670,13 +7967,13 @@
         <v>95</v>
       </c>
       <c r="V99" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W99" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z99" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -7690,13 +7987,16 @@
       <c r="AF99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:32">
+      <c r="AG99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33">
       <c r="A100" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B100" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7714,16 +8014,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J100" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R100">
         <v>99</v>
       </c>
       <c r="S100" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T100">
         <v>54</v>
@@ -7732,13 +8032,13 @@
         <v>99</v>
       </c>
       <c r="V100" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="W100" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z100" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -7752,13 +8052,16 @@
       <c r="AF100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:32">
+      <c r="AG100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
       <c r="A101" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7776,16 +8079,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J101" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="R101">
         <v>100</v>
       </c>
       <c r="S101" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T101">
         <v>54</v>
@@ -7794,13 +8097,13 @@
         <v>99</v>
       </c>
       <c r="V101" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="W101" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z101" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -7814,13 +8117,16 @@
       <c r="AF101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:32">
+      <c r="AG101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B102" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -7838,16 +8144,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J102" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R102">
         <v>101</v>
       </c>
       <c r="S102" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T102">
         <v>54</v>
@@ -7856,13 +8162,13 @@
         <v>99</v>
       </c>
       <c r="V102" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="W102" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z102" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -7876,13 +8182,16 @@
       <c r="AF102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:32">
+      <c r="AG102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B103" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -7900,16 +8209,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J103" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R103">
         <v>102</v>
       </c>
       <c r="S103" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T103">
         <v>55</v>
@@ -7918,13 +8227,13 @@
         <v>100</v>
       </c>
       <c r="V103" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="W103" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z103" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -7938,13 +8247,16 @@
       <c r="AF103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:32">
+      <c r="AG103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33">
       <c r="A104" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B104" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -7962,16 +8274,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J104" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R104">
         <v>103</v>
       </c>
       <c r="S104" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T104">
         <v>56</v>
@@ -7980,13 +8292,13 @@
         <v>101</v>
       </c>
       <c r="V104" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="W104" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z104" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -8000,13 +8312,16 @@
       <c r="AF104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:32">
+      <c r="AG104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B105" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8024,16 +8339,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J105" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R105">
         <v>104</v>
       </c>
       <c r="S105" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T105">
         <v>57</v>
@@ -8042,13 +8357,13 @@
         <v>102</v>
       </c>
       <c r="V105" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W105" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z105" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -8062,13 +8377,16 @@
       <c r="AF105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:32">
+      <c r="AG105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33">
       <c r="A106" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B106" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8086,16 +8404,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J106" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R106">
         <v>105</v>
       </c>
       <c r="S106" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T106">
         <v>57</v>
@@ -8104,13 +8422,13 @@
         <v>102</v>
       </c>
       <c r="V106" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W106" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z106" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -8124,13 +8442,16 @@
       <c r="AF106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:32">
+      <c r="AG106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33">
       <c r="A107" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B107" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8148,16 +8469,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J107" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R107">
         <v>106</v>
       </c>
       <c r="S107" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T107">
         <v>59</v>
@@ -8166,13 +8487,13 @@
         <v>104</v>
       </c>
       <c r="V107" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W107" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z107" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -8186,13 +8507,16 @@
       <c r="AF107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:32">
+      <c r="AG107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33">
       <c r="A108" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B108" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8210,16 +8534,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J108" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R108">
         <v>107</v>
       </c>
       <c r="S108" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T108">
         <v>60</v>
@@ -8228,13 +8552,13 @@
         <v>105</v>
       </c>
       <c r="V108" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W108" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="Z108" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -8248,13 +8572,16 @@
       <c r="AF108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:32">
+      <c r="AG108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33">
       <c r="A109" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B109" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -8272,16 +8599,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J109" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R109">
         <v>108</v>
       </c>
       <c r="S109" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T109">
         <v>61</v>
@@ -8290,13 +8617,13 @@
         <v>106</v>
       </c>
       <c r="V109" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W109" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z109" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -8310,13 +8637,16 @@
       <c r="AF109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:32">
+      <c r="AG109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33">
       <c r="A110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B110" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -8334,16 +8664,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J110" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R110">
         <v>109</v>
       </c>
       <c r="S110" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T110">
         <v>65</v>
@@ -8352,13 +8682,13 @@
         <v>111</v>
       </c>
       <c r="V110" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="W110" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Z110" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -8372,13 +8702,16 @@
       <c r="AF110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:32">
+      <c r="AG110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33">
       <c r="A111" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B111" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8396,16 +8729,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J111" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R111">
         <v>110</v>
       </c>
       <c r="S111" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T111">
         <v>66</v>
@@ -8414,13 +8747,13 @@
         <v>113</v>
       </c>
       <c r="V111" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W111" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Z111" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -8434,13 +8767,16 @@
       <c r="AF111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:32">
+      <c r="AG111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33">
       <c r="A112" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8458,16 +8794,16 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J112" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R112">
         <v>111</v>
       </c>
       <c r="S112" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T112">
         <v>68</v>
@@ -8476,13 +8812,13 @@
         <v>115</v>
       </c>
       <c r="V112" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="W112" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z112" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -8496,13 +8832,16 @@
       <c r="AF112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:32">
+      <c r="AG112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33">
       <c r="A113" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B113" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8520,16 +8859,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J113" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R113">
         <v>112</v>
       </c>
       <c r="S113" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T113">
         <v>71</v>
@@ -8538,13 +8877,13 @@
         <v>119</v>
       </c>
       <c r="V113" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W113" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z113" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -8558,13 +8897,16 @@
       <c r="AF113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:32">
+      <c r="AG113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33">
       <c r="A114" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B114" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8582,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J114" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R114">
         <v>113</v>
       </c>
       <c r="S114" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T114">
         <v>71</v>
@@ -8600,13 +8942,13 @@
         <v>119</v>
       </c>
       <c r="V114" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W114" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z114" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -8620,13 +8962,16 @@
       <c r="AF114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:32">
+      <c r="AG114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33">
       <c r="A115" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B115" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8644,16 +8989,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J115" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R115">
         <v>114</v>
       </c>
       <c r="S115" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T115">
         <v>71</v>
@@ -8662,13 +9007,13 @@
         <v>119</v>
       </c>
       <c r="V115" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W115" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z115" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -8682,13 +9027,16 @@
       <c r="AF115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:32">
+      <c r="AG115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33">
       <c r="A116" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B116" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8706,16 +9054,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J116" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R116">
         <v>115</v>
       </c>
       <c r="S116" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T116">
         <v>71</v>
@@ -8724,13 +9072,13 @@
         <v>119</v>
       </c>
       <c r="V116" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W116" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z116" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -8744,13 +9092,16 @@
       <c r="AF116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:32">
+      <c r="AG116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33">
       <c r="A117" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B117" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8768,16 +9119,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J117" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R117">
         <v>116</v>
       </c>
       <c r="S117" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T117">
         <v>71</v>
@@ -8786,13 +9137,13 @@
         <v>119</v>
       </c>
       <c r="V117" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W117" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z117" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -8806,13 +9157,16 @@
       <c r="AF117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:32">
+      <c r="AG117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33">
       <c r="A118" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B118" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8830,16 +9184,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J118" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R118">
         <v>117</v>
       </c>
       <c r="S118" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T118">
         <v>71</v>
@@ -8848,13 +9202,13 @@
         <v>119</v>
       </c>
       <c r="V118" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W118" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z118" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -8868,13 +9222,16 @@
       <c r="AF118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:32">
+      <c r="AG118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33">
       <c r="A119" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B119" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -8892,16 +9249,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J119" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R119">
         <v>118</v>
       </c>
       <c r="S119" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T119">
         <v>71</v>
@@ -8910,13 +9267,13 @@
         <v>119</v>
       </c>
       <c r="V119" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W119" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z119" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -8930,13 +9287,16 @@
       <c r="AF119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:32">
+      <c r="AG119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33">
       <c r="A120" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B120" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -8954,16 +9314,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J120" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R120">
         <v>119</v>
       </c>
       <c r="S120" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T120">
         <v>71</v>
@@ -8972,13 +9332,13 @@
         <v>119</v>
       </c>
       <c r="V120" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W120" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z120" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -8992,13 +9352,16 @@
       <c r="AF120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:32">
+      <c r="AG120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33">
       <c r="A121" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B121" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9016,16 +9379,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J121" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R121">
         <v>120</v>
       </c>
       <c r="S121" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T121">
         <v>71</v>
@@ -9034,13 +9397,13 @@
         <v>119</v>
       </c>
       <c r="V121" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W121" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z121" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -9052,6 +9415,9 @@
         <v>0</v>
       </c>
       <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p19.xlsx
+++ b/files/separadas/repeat_p19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="357">
   <si>
     <t>p19_nom</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>c4</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>La falta de articulación por parte de la instituciones del distrito</t>
@@ -524,6 +527,9 @@
     <t>p19_act_5</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>Equipo de Participación ciudadana realizó ejercicios de innovación, experiencias exitosas. (alfabetización – aprendizaje digital), se origina por la pandemia dado que no se tenía contacto personal con la ciudadanía. (Soporte: link video, personas beneficiadas).  
 Generación de laboratorio Co Creación ciudadana – LASOS.- Laboratorio Social en Salud. Premio Distrital – DASC. Mejor iniciativa de participación ciudadana y/o control social categoría 6.</t>
   </si>
@@ -569,10 +575,10 @@
     <t>Con la información se plantean las acciones contempladas en las opciones A elaboración de documentos, B planificación de acciones y C socialización para la ciudadanía.</t>
   </si>
   <si>
-    <t>p19_post_bin_1</t>
-  </si>
-  <si>
-    <t>p19_post_bin_2</t>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Sumapaz Talleres _ Sistematización  (1)-14_35_13.pdf</t>
@@ -1469,13 +1475,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG121"/>
+  <dimension ref="A1:AH121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1575,19 +1581,22 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>166</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1599,16 +1608,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -1617,13 +1626,13 @@
         <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="W2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Z2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1640,13 +1649,16 @@
       <c r="AG2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AH2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1657,26 +1669,26 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>166</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T3">
         <v>4</v>
@@ -1685,13 +1697,13 @@
         <v>9</v>
       </c>
       <c r="V3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="W3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Z3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1708,19 +1720,22 @@
       <c r="AG3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AH3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>166</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1732,16 +1747,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T4">
         <v>6</v>
@@ -1750,13 +1765,13 @@
         <v>12</v>
       </c>
       <c r="V4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="W4" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1773,19 +1788,22 @@
       <c r="AG4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AH4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
+        <v>166</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1797,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T5">
         <v>6</v>
@@ -1815,13 +1833,13 @@
         <v>12</v>
       </c>
       <c r="V5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="W5" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1838,16 +1856,19 @@
       <c r="AG5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AH5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1862,16 +1883,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T6">
         <v>6</v>
@@ -1880,13 +1901,13 @@
         <v>12</v>
       </c>
       <c r="V6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="W6" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1903,16 +1924,19 @@
       <c r="AG6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="AH6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1927,16 +1951,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T7">
         <v>6</v>
@@ -1945,13 +1969,13 @@
         <v>12</v>
       </c>
       <c r="V7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="W7" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1968,19 +1992,22 @@
       <c r="AG7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AH7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>166</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1992,16 +2019,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T8">
         <v>7</v>
@@ -2010,13 +2037,13 @@
         <v>13</v>
       </c>
       <c r="V8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="W8" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2033,22 +2060,25 @@
       <c r="AG8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AH8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" t="s">
+        <v>166</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2057,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T9">
         <v>8</v>
@@ -2075,13 +2105,13 @@
         <v>14</v>
       </c>
       <c r="V9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="W9" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Z9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2098,16 +2128,19 @@
       <c r="AG9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AH9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2122,16 +2155,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="R10">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T10">
         <v>9</v>
@@ -2140,13 +2173,13 @@
         <v>15</v>
       </c>
       <c r="V10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W10" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2163,16 +2196,19 @@
       <c r="AG10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AH10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C11" t="s">
+        <v>166</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2187,16 +2223,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="R11">
         <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T11">
         <v>9</v>
@@ -2205,13 +2241,13 @@
         <v>15</v>
       </c>
       <c r="V11" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W11" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z11" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2228,22 +2264,25 @@
       <c r="AG11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AH11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" t="s">
+        <v>166</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2252,16 +2291,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="R12">
         <v>11</v>
       </c>
       <c r="S12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T12">
         <v>9</v>
@@ -2270,13 +2309,13 @@
         <v>15</v>
       </c>
       <c r="V12" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z12" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2293,16 +2332,19 @@
       <c r="AG12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AH12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2317,16 +2359,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T13">
         <v>9</v>
@@ -2335,13 +2377,13 @@
         <v>15</v>
       </c>
       <c r="V13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="W13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2358,22 +2400,25 @@
       <c r="AG13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AH13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" t="s">
+        <v>166</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -2382,16 +2427,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="R14">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T14">
         <v>10</v>
@@ -2400,13 +2445,13 @@
         <v>16</v>
       </c>
       <c r="V14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="W14" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z14" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2423,13 +2468,16 @@
       <c r="AG14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="AH14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2440,26 +2488,26 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>166</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="R15">
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T15">
         <v>10</v>
@@ -2468,13 +2516,13 @@
         <v>16</v>
       </c>
       <c r="V15" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="W15" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z15" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2491,16 +2539,19 @@
       <c r="AG15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="AH15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2515,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="R16">
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T16">
         <v>11</v>
@@ -2533,13 +2584,13 @@
         <v>17</v>
       </c>
       <c r="V16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="W16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z16" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2556,16 +2607,19 @@
       <c r="AG16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:33">
+      <c r="AH16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2580,16 +2634,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="R17">
         <v>16</v>
       </c>
       <c r="S17" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T17">
         <v>11</v>
@@ -2598,13 +2652,13 @@
         <v>17</v>
       </c>
       <c r="V17" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="W17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z17" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2621,13 +2675,16 @@
       <c r="AG17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:33">
+      <c r="AH17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2635,8 +2692,8 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>1</v>
+      <c r="E18" t="s">
+        <v>166</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2645,16 +2702,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="R18">
         <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T18">
         <v>11</v>
@@ -2663,13 +2720,13 @@
         <v>17</v>
       </c>
       <c r="V18" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="W18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z18" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2686,22 +2743,25 @@
       <c r="AG18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:33">
+      <c r="AH18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+      <c r="D19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" t="s">
+        <v>166</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2710,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="R19">
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T19">
         <v>11</v>
@@ -2728,13 +2788,13 @@
         <v>17</v>
       </c>
       <c r="V19" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="W19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z19" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2751,16 +2811,19 @@
       <c r="AG19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:33">
+      <c r="AH19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2775,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="R20">
         <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T20">
         <v>11</v>
@@ -2793,13 +2856,13 @@
         <v>17</v>
       </c>
       <c r="V20" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="W20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z20" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2816,13 +2879,16 @@
       <c r="AG20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:33">
+      <c r="AH20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2830,8 +2896,8 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="E21" t="s">
+        <v>166</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2840,16 +2906,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="R21">
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T21">
         <v>11</v>
@@ -2858,13 +2924,13 @@
         <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="W21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z21" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -2881,19 +2947,22 @@
       <c r="AG21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:33">
+      <c r="AH21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22">
-        <v>1</v>
+      <c r="D22" t="s">
+        <v>166</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2905,16 +2974,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="R22">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T22">
         <v>11</v>
@@ -2923,13 +2992,13 @@
         <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="W22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z22" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -2946,19 +3015,22 @@
       <c r="AG22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:33">
+      <c r="AH22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="D23" t="s">
+        <v>166</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2970,16 +3042,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="R23">
         <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T23">
         <v>12</v>
@@ -2988,13 +3060,13 @@
         <v>18</v>
       </c>
       <c r="V23" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="W23" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Z23" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -3011,16 +3083,19 @@
       <c r="AG23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:33">
+      <c r="AH23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>166</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3035,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="R24">
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T24">
         <v>13</v>
@@ -3053,13 +3128,13 @@
         <v>20</v>
       </c>
       <c r="V24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="W24" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z24" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3076,16 +3151,19 @@
       <c r="AG24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:33">
+      <c r="AH24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C25" t="s">
+        <v>166</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3100,16 +3178,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="R25">
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T25">
         <v>14</v>
@@ -3118,13 +3196,13 @@
         <v>21</v>
       </c>
       <c r="V25" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="W25" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Z25" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3141,16 +3219,19 @@
       <c r="AG25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:33">
+      <c r="AH25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C26" t="s">
+        <v>166</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3165,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="R26">
         <v>25</v>
       </c>
       <c r="S26" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T26">
         <v>15</v>
@@ -3183,13 +3264,13 @@
         <v>22</v>
       </c>
       <c r="V26" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="W26" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z26" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3206,13 +3287,16 @@
       <c r="AG26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:33">
+      <c r="AH26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3223,26 +3307,26 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
-        <v>1</v>
+      <c r="F27" t="s">
+        <v>166</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="R27">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T27">
         <v>15</v>
@@ -3251,13 +3335,13 @@
         <v>22</v>
       </c>
       <c r="V27" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="W27" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z27" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3274,22 +3358,25 @@
       <c r="AG27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:33">
+      <c r="AH27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3298,16 +3385,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="R28">
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T28">
         <v>16</v>
@@ -3316,13 +3403,13 @@
         <v>25</v>
       </c>
       <c r="V28" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="W28" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z28" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3339,22 +3426,25 @@
       <c r="AG28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:33">
+      <c r="AH28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" t="s">
+        <v>166</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3363,16 +3453,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J29" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="R29">
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T29">
         <v>17</v>
@@ -3381,13 +3471,13 @@
         <v>26</v>
       </c>
       <c r="V29" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="W29" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z29" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3404,16 +3494,19 @@
       <c r="AG29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:33">
+      <c r="AH29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C30" t="s">
+        <v>166</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3428,16 +3521,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R30">
         <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T30">
         <v>18</v>
@@ -3446,13 +3539,13 @@
         <v>27</v>
       </c>
       <c r="V30" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="W30" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Z30" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3469,43 +3562,46 @@
       <c r="AG30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:33">
+      <c r="AH30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="C31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" t="s">
+        <v>166</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31">
-        <v>1</v>
+      <c r="F31" t="s">
+        <v>166</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J31" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R31">
         <v>30</v>
       </c>
       <c r="S31" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T31">
         <v>19</v>
@@ -3514,13 +3610,13 @@
         <v>30</v>
       </c>
       <c r="V31" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="W31" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z31" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3537,43 +3633,46 @@
       <c r="AG31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:33">
+      <c r="AH31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="D32">
-        <v>1</v>
+      <c r="D32" t="s">
+        <v>166</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
-        <v>1</v>
+      <c r="F32" t="s">
+        <v>166</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I32" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J32" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="R32">
         <v>31</v>
       </c>
       <c r="S32" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T32">
         <v>19</v>
@@ -3582,13 +3681,13 @@
         <v>30</v>
       </c>
       <c r="V32" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="W32" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z32" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -3605,19 +3704,22 @@
       <c r="AG32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:33">
+      <c r="AH32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" t="s">
+        <v>166</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3629,16 +3731,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R33">
         <v>32</v>
       </c>
       <c r="S33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T33">
         <v>19</v>
@@ -3647,13 +3749,13 @@
         <v>30</v>
       </c>
       <c r="V33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="W33" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z33" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -3670,13 +3772,16 @@
       <c r="AG33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:33">
+      <c r="AH33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3687,26 +3792,26 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34">
-        <v>1</v>
+      <c r="F34" t="s">
+        <v>166</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J34" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="R34">
         <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T34">
         <v>19</v>
@@ -3715,13 +3820,13 @@
         <v>30</v>
       </c>
       <c r="V34" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="W34" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z34" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -3738,13 +3843,16 @@
       <c r="AG34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:33">
+      <c r="AH34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3755,26 +3863,26 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35">
-        <v>1</v>
+      <c r="F35" t="s">
+        <v>166</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I35" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J35" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="R35">
         <v>34</v>
       </c>
       <c r="S35" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T35">
         <v>19</v>
@@ -3783,13 +3891,13 @@
         <v>30</v>
       </c>
       <c r="V35" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="W35" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z35" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -3806,19 +3914,22 @@
       <c r="AG35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:33">
+      <c r="AH35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" t="s">
+        <v>166</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3830,16 +3941,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="R36">
         <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T36">
         <v>21</v>
@@ -3848,13 +3959,13 @@
         <v>34</v>
       </c>
       <c r="V36" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="W36" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z36" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -3871,19 +3982,22 @@
       <c r="AG36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:33">
+      <c r="AH36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
-      <c r="D37">
-        <v>1</v>
+      <c r="D37" t="s">
+        <v>166</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3895,16 +4009,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R37">
         <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T37">
         <v>22</v>
@@ -3913,13 +4027,13 @@
         <v>37</v>
       </c>
       <c r="V37" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="W37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z37" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -3936,22 +4050,25 @@
       <c r="AG37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:33">
+      <c r="AH37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>166</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -3960,16 +4077,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J38" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="R38">
         <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T38">
         <v>22</v>
@@ -3978,13 +4095,13 @@
         <v>37</v>
       </c>
       <c r="V38" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="W38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z38" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -4001,22 +4118,25 @@
       <c r="AG38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:33">
+      <c r="AH38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" t="s">
+        <v>166</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4025,16 +4145,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J39" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R39">
         <v>38</v>
       </c>
       <c r="S39" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T39">
         <v>22</v>
@@ -4043,13 +4163,13 @@
         <v>37</v>
       </c>
       <c r="V39" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="W39" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z39" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -4066,22 +4186,25 @@
       <c r="AG39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:33">
+      <c r="AH39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" t="s">
+        <v>166</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -4090,16 +4213,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="R40">
         <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T40">
         <v>22</v>
@@ -4108,13 +4231,13 @@
         <v>37</v>
       </c>
       <c r="V40" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="W40" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z40" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -4131,22 +4254,25 @@
       <c r="AG40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:33">
+      <c r="AH40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C41" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" t="s">
+        <v>166</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -4155,16 +4281,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J41" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R41">
         <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T41">
         <v>22</v>
@@ -4173,13 +4299,13 @@
         <v>37</v>
       </c>
       <c r="V41" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="W41" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z41" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -4196,22 +4322,25 @@
       <c r="AG41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:33">
+      <c r="AH41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
+        <v>166</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -4220,16 +4349,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R42">
         <v>41</v>
       </c>
       <c r="S42" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T42">
         <v>22</v>
@@ -4238,13 +4367,13 @@
         <v>37</v>
       </c>
       <c r="V42" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="W42" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z42" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -4261,19 +4390,22 @@
       <c r="AG42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:33">
+      <c r="AH42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" t="s">
+        <v>166</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -4285,16 +4417,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J43" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="R43">
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T43">
         <v>22</v>
@@ -4303,13 +4435,13 @@
         <v>37</v>
       </c>
       <c r="V43" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="W43" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z43" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -4326,22 +4458,25 @@
       <c r="AG43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:33">
+      <c r="AH43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" t="s">
+        <v>166</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -4350,16 +4485,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J44" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="R44">
         <v>43</v>
       </c>
       <c r="S44" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T44">
         <v>22</v>
@@ -4368,13 +4503,13 @@
         <v>37</v>
       </c>
       <c r="V44" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="W44" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z44" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -4391,22 +4526,25 @@
       <c r="AG44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:33">
+      <c r="AH44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" t="s">
+        <v>166</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4415,16 +4553,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="R45">
         <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T45">
         <v>23</v>
@@ -4433,13 +4571,13 @@
         <v>38</v>
       </c>
       <c r="V45" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="W45" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z45" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -4456,22 +4594,25 @@
       <c r="AG45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:33">
+      <c r="AH45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" t="s">
+        <v>166</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -4480,16 +4621,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J46" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="R46">
         <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T46">
         <v>23</v>
@@ -4498,13 +4639,13 @@
         <v>38</v>
       </c>
       <c r="V46" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="W46" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z46" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -4521,22 +4662,25 @@
       <c r="AG46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:33">
+      <c r="AH46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" t="s">
+        <v>166</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4545,16 +4689,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J47" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="R47">
         <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T47">
         <v>23</v>
@@ -4563,13 +4707,13 @@
         <v>38</v>
       </c>
       <c r="V47" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="W47" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z47" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -4586,22 +4730,25 @@
       <c r="AG47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:33">
+      <c r="AH47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" t="s">
+        <v>166</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -4610,16 +4757,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="R48">
         <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T48">
         <v>23</v>
@@ -4628,13 +4775,13 @@
         <v>38</v>
       </c>
       <c r="V48" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="W48" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z48" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -4651,22 +4798,25 @@
       <c r="AG48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:33">
+      <c r="AH48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" t="s">
+        <v>166</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -4675,16 +4825,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J49" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R49">
         <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T49">
         <v>24</v>
@@ -4693,13 +4843,13 @@
         <v>51</v>
       </c>
       <c r="V49" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="W49" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z49" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -4716,43 +4866,46 @@
       <c r="AG49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:33">
+      <c r="AH49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="C50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" t="s">
+        <v>166</v>
+      </c>
+      <c r="F50" t="s">
+        <v>166</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J50" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="R50">
         <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T50">
         <v>24</v>
@@ -4761,13 +4914,13 @@
         <v>51</v>
       </c>
       <c r="V50" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="W50" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z50" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -4784,43 +4937,46 @@
       <c r="AG50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:33">
+      <c r="AH50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="C51" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" t="s">
+        <v>166</v>
+      </c>
+      <c r="F51" t="s">
+        <v>166</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J51" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R51">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T51">
         <v>24</v>
@@ -4829,13 +4985,13 @@
         <v>51</v>
       </c>
       <c r="V51" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="W51" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z51" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -4852,43 +5008,46 @@
       <c r="AG51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:33">
+      <c r="AH51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="C52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" t="s">
+        <v>166</v>
+      </c>
+      <c r="F52" t="s">
+        <v>166</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I52" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J52" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="R52">
         <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T52">
         <v>27</v>
@@ -4897,13 +5056,13 @@
         <v>56</v>
       </c>
       <c r="V52" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="W52" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z52" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -4920,43 +5079,46 @@
       <c r="AG52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:33">
+      <c r="AH52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="C53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" t="s">
+        <v>166</v>
+      </c>
+      <c r="F53" t="s">
+        <v>166</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I53" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J53" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="R53">
         <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T53">
         <v>27</v>
@@ -4965,13 +5127,13 @@
         <v>56</v>
       </c>
       <c r="V53" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="W53" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z53" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -4988,22 +5150,25 @@
       <c r="AG53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:33">
+      <c r="AH53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" t="s">
+        <v>166</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -5012,16 +5177,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J54" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="R54">
         <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T54">
         <v>27</v>
@@ -5030,13 +5195,13 @@
         <v>56</v>
       </c>
       <c r="V54" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="W54" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z54" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -5053,22 +5218,25 @@
       <c r="AG54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:33">
+      <c r="AH54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" t="s">
+        <v>166</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -5077,16 +5245,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J55" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R55">
         <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T55">
         <v>28</v>
@@ -5095,13 +5263,13 @@
         <v>57</v>
       </c>
       <c r="V55" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="W55" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z55" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -5118,22 +5286,25 @@
       <c r="AG55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:33">
+      <c r="AH55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" t="s">
+        <v>166</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -5142,16 +5313,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J56" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R56">
         <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T56">
         <v>29</v>
@@ -5160,13 +5331,13 @@
         <v>58</v>
       </c>
       <c r="V56" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="W56" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z56" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -5183,22 +5354,25 @@
       <c r="AG56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:33">
+      <c r="AH56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
+        <v>164</v>
+      </c>
+      <c r="C57" t="s">
+        <v>166</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57">
-        <v>1</v>
+      <c r="E57" t="s">
+        <v>166</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -5207,16 +5381,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J57" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R57">
         <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T57">
         <v>29</v>
@@ -5225,13 +5399,13 @@
         <v>58</v>
       </c>
       <c r="V57" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="W57" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z57" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -5248,22 +5422,25 @@
       <c r="AG57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:33">
+      <c r="AH57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" t="s">
+        <v>166</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -5272,16 +5449,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J58" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R58">
         <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T58">
         <v>30</v>
@@ -5290,13 +5467,13 @@
         <v>59</v>
       </c>
       <c r="V58" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="W58" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z58" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -5313,22 +5490,25 @@
       <c r="AG58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:33">
+      <c r="AH58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" t="s">
+        <v>166</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -5337,16 +5517,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J59" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="R59">
         <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T59">
         <v>30</v>
@@ -5355,13 +5535,13 @@
         <v>59</v>
       </c>
       <c r="V59" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="W59" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z59" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -5378,22 +5558,25 @@
       <c r="AG59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:33">
+      <c r="AH59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" t="s">
+        <v>166</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -5402,16 +5585,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J60" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="R60">
         <v>59</v>
       </c>
       <c r="S60" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T60">
         <v>30</v>
@@ -5420,13 +5603,13 @@
         <v>59</v>
       </c>
       <c r="V60" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="W60" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z60" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -5443,22 +5626,25 @@
       <c r="AG60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:33">
+      <c r="AH60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61" t="s">
+        <v>166</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -5467,16 +5653,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J61" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="R61">
         <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -5485,13 +5671,13 @@
         <v>59</v>
       </c>
       <c r="V61" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="W61" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z61" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -5508,19 +5694,22 @@
       <c r="AG61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:33">
+      <c r="AH61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
-      <c r="D62">
-        <v>1</v>
+      <c r="D62" t="s">
+        <v>166</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -5532,16 +5721,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J62" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="R62">
         <v>61</v>
       </c>
       <c r="S62" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T62">
         <v>31</v>
@@ -5550,13 +5739,13 @@
         <v>60</v>
       </c>
       <c r="V62" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="W62" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z62" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -5573,22 +5762,25 @@
       <c r="AG62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:33">
+      <c r="AH62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C63" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" t="s">
+        <v>166</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5597,16 +5789,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J63" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="R63">
         <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T63">
         <v>32</v>
@@ -5615,13 +5807,13 @@
         <v>61</v>
       </c>
       <c r="V63" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="W63" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z63" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -5638,22 +5830,25 @@
       <c r="AG63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:33">
+      <c r="AH63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C64" t="s">
+        <v>166</v>
+      </c>
+      <c r="D64" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" t="s">
+        <v>166</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5662,16 +5857,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J64" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="R64">
         <v>63</v>
       </c>
       <c r="S64" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T64">
         <v>32</v>
@@ -5680,13 +5875,13 @@
         <v>61</v>
       </c>
       <c r="V64" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="W64" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z64" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -5703,22 +5898,25 @@
       <c r="AG64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:33">
+      <c r="AH64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C65" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E65" t="s">
+        <v>166</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -5727,16 +5925,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J65" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="R65">
         <v>64</v>
       </c>
       <c r="S65" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T65">
         <v>33</v>
@@ -5745,13 +5943,13 @@
         <v>63</v>
       </c>
       <c r="V65" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="W65" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z65" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -5768,22 +5966,25 @@
       <c r="AG65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:33">
+      <c r="AH65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C66" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" t="s">
+        <v>166</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -5792,16 +5993,16 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J66" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="R66">
         <v>65</v>
       </c>
       <c r="S66" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T66">
         <v>33</v>
@@ -5810,13 +6011,13 @@
         <v>63</v>
       </c>
       <c r="V66" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="W66" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z66" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -5833,22 +6034,25 @@
       <c r="AG66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:33">
+      <c r="AH66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C67" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" t="s">
+        <v>166</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5857,16 +6061,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J67" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="R67">
         <v>66</v>
       </c>
       <c r="S67" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T67">
         <v>33</v>
@@ -5875,13 +6079,13 @@
         <v>63</v>
       </c>
       <c r="V67" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="W67" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z67" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -5898,22 +6102,25 @@
       <c r="AG67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:33">
+      <c r="AH67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C68" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" t="s">
+        <v>166</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -5922,16 +6129,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J68" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="R68">
         <v>67</v>
       </c>
       <c r="S68" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T68">
         <v>33</v>
@@ -5940,13 +6147,13 @@
         <v>63</v>
       </c>
       <c r="V68" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="W68" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z68" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -5963,22 +6170,25 @@
       <c r="AG68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:33">
+      <c r="AH68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C69" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" t="s">
+        <v>166</v>
+      </c>
+      <c r="E69" t="s">
+        <v>166</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5987,16 +6197,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J69" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R69">
         <v>68</v>
       </c>
       <c r="S69" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T69">
         <v>33</v>
@@ -6005,13 +6215,13 @@
         <v>63</v>
       </c>
       <c r="V69" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="W69" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z69" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -6028,22 +6238,25 @@
       <c r="AG69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:33">
+      <c r="AH69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" t="s">
+        <v>166</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -6052,16 +6265,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J70" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="R70">
         <v>69</v>
       </c>
       <c r="S70" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T70">
         <v>33</v>
@@ -6070,13 +6283,13 @@
         <v>63</v>
       </c>
       <c r="V70" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="W70" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z70" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -6093,22 +6306,25 @@
       <c r="AG70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:33">
+      <c r="AH70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C71" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" t="s">
+        <v>166</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -6117,16 +6333,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J71" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R71">
         <v>70</v>
       </c>
       <c r="S71" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T71">
         <v>33</v>
@@ -6135,13 +6351,13 @@
         <v>63</v>
       </c>
       <c r="V71" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="W71" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z71" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -6158,22 +6374,25 @@
       <c r="AG71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:33">
+      <c r="AH71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" t="s">
+        <v>166</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -6182,16 +6401,16 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J72" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="R72">
         <v>71</v>
       </c>
       <c r="S72" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T72">
         <v>33</v>
@@ -6200,13 +6419,13 @@
         <v>63</v>
       </c>
       <c r="V72" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="W72" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z72" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -6223,16 +6442,19 @@
       <c r="AG72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:33">
+      <c r="AH72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C73" t="s">
+        <v>166</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -6247,16 +6469,16 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J73" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="R73">
         <v>72</v>
       </c>
       <c r="S73" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T73">
         <v>34</v>
@@ -6265,13 +6487,13 @@
         <v>64</v>
       </c>
       <c r="V73" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="W73" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z73" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -6288,19 +6510,22 @@
       <c r="AG73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:33">
+      <c r="AH73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
-      <c r="D74">
-        <v>1</v>
+      <c r="D74" t="s">
+        <v>166</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -6312,16 +6537,16 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J74" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="R74">
         <v>73</v>
       </c>
       <c r="S74" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T74">
         <v>34</v>
@@ -6330,13 +6555,13 @@
         <v>64</v>
       </c>
       <c r="V74" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="W74" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z74" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -6353,16 +6578,19 @@
       <c r="AG74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:33">
+      <c r="AH74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C75" t="s">
+        <v>166</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -6377,16 +6605,16 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J75" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="R75">
         <v>74</v>
       </c>
       <c r="S75" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T75">
         <v>36</v>
@@ -6395,13 +6623,13 @@
         <v>77</v>
       </c>
       <c r="V75" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="W75" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z75" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -6418,16 +6646,19 @@
       <c r="AG75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:33">
+      <c r="AH75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C76" t="s">
+        <v>166</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -6442,16 +6673,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J76" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="R76">
         <v>75</v>
       </c>
       <c r="S76" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T76">
         <v>37</v>
@@ -6460,13 +6691,13 @@
         <v>78</v>
       </c>
       <c r="V76" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="W76" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z76" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -6483,16 +6714,19 @@
       <c r="AG76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:33">
+      <c r="AH76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
+        <v>166</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -6507,16 +6741,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J77" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="R77">
         <v>76</v>
       </c>
       <c r="S77" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T77">
         <v>37</v>
@@ -6525,13 +6759,13 @@
         <v>78</v>
       </c>
       <c r="V77" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="W77" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z77" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -6548,16 +6782,19 @@
       <c r="AG77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:33">
+      <c r="AH77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>166</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -6572,16 +6809,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J78" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="R78">
         <v>77</v>
       </c>
       <c r="S78" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T78">
         <v>37</v>
@@ -6590,13 +6827,13 @@
         <v>78</v>
       </c>
       <c r="V78" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="W78" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z78" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -6613,16 +6850,19 @@
       <c r="AG78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:33">
+      <c r="AH78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>166</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -6637,16 +6877,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J79" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="R79">
         <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T79">
         <v>37</v>
@@ -6655,13 +6895,13 @@
         <v>78</v>
       </c>
       <c r="V79" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="W79" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z79" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -6678,22 +6918,25 @@
       <c r="AG79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:33">
+      <c r="AH79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C80" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80" t="s">
+        <v>166</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6702,16 +6945,16 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J80" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="R80">
         <v>79</v>
       </c>
       <c r="S80" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T80">
         <v>39</v>
@@ -6720,13 +6963,13 @@
         <v>81</v>
       </c>
       <c r="V80" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="W80" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z80" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -6743,13 +6986,16 @@
       <c r="AG80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:33">
+      <c r="AH80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -6763,20 +7009,20 @@
       <c r="F81">
         <v>0</v>
       </c>
-      <c r="G81">
-        <v>1</v>
+      <c r="G81" t="s">
+        <v>166</v>
       </c>
       <c r="I81" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J81" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="R81">
         <v>80</v>
       </c>
       <c r="S81" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T81">
         <v>40</v>
@@ -6785,13 +7031,13 @@
         <v>82</v>
       </c>
       <c r="V81" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="W81" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z81" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -6808,16 +7054,19 @@
       <c r="AG81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:33">
+      <c r="AH81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C82" t="s">
+        <v>166</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -6832,16 +7081,16 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J82" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="R82">
         <v>81</v>
       </c>
       <c r="S82" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T82">
         <v>42</v>
@@ -6850,13 +7099,13 @@
         <v>84</v>
       </c>
       <c r="V82" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="W82" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z82" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -6873,22 +7122,25 @@
       <c r="AG82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:33">
+      <c r="AH82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" t="s">
+        <v>166</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6897,16 +7149,16 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J83" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R83">
         <v>82</v>
       </c>
       <c r="S83" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T83">
         <v>44</v>
@@ -6915,13 +7167,13 @@
         <v>87</v>
       </c>
       <c r="V83" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="W83" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z83" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -6938,22 +7190,25 @@
       <c r="AG83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:33">
+      <c r="AH83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B84" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" t="s">
+        <v>166</v>
+      </c>
+      <c r="E84" t="s">
+        <v>166</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6962,16 +7217,16 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J84" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="R84">
         <v>83</v>
       </c>
       <c r="S84" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T84">
         <v>44</v>
@@ -6980,13 +7235,13 @@
         <v>87</v>
       </c>
       <c r="V84" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="W84" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z84" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -7003,22 +7258,25 @@
       <c r="AG84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:33">
+      <c r="AH84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C85" t="s">
+        <v>166</v>
+      </c>
+      <c r="D85" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" t="s">
+        <v>166</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -7027,16 +7285,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J85" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="R85">
         <v>84</v>
       </c>
       <c r="S85" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T85">
         <v>44</v>
@@ -7045,13 +7303,13 @@
         <v>87</v>
       </c>
       <c r="V85" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="W85" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z85" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -7068,13 +7326,16 @@
       <c r="AG85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:33">
+      <c r="AH85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B86" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -7085,26 +7346,26 @@
       <c r="E86">
         <v>0</v>
       </c>
-      <c r="F86">
-        <v>1</v>
+      <c r="F86" t="s">
+        <v>166</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I86" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J86" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="R86">
         <v>85</v>
       </c>
       <c r="S86" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T86">
         <v>45</v>
@@ -7113,13 +7374,13 @@
         <v>88</v>
       </c>
       <c r="V86" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="W86" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z86" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -7136,13 +7397,16 @@
       <c r="AG86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:33">
+      <c r="AH86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -7153,26 +7417,26 @@
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87">
-        <v>1</v>
+      <c r="F87" t="s">
+        <v>166</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I87" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J87" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="R87">
         <v>86</v>
       </c>
       <c r="S87" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T87">
         <v>45</v>
@@ -7181,13 +7445,13 @@
         <v>88</v>
       </c>
       <c r="V87" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="W87" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z87" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -7204,22 +7468,25 @@
       <c r="AG87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:33">
+      <c r="AH87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B88" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C88" t="s">
+        <v>166</v>
+      </c>
+      <c r="D88" t="s">
+        <v>166</v>
+      </c>
+      <c r="E88" t="s">
+        <v>166</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -7228,16 +7495,16 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J88" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="R88">
         <v>87</v>
       </c>
       <c r="S88" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T88">
         <v>46</v>
@@ -7246,13 +7513,13 @@
         <v>90</v>
       </c>
       <c r="V88" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="W88" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z88" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -7269,22 +7536,25 @@
       <c r="AG88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:33">
+      <c r="AH88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B89" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D89" t="s">
+        <v>166</v>
+      </c>
+      <c r="E89" t="s">
+        <v>166</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -7293,16 +7563,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J89" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R89">
         <v>88</v>
       </c>
       <c r="S89" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T89">
         <v>46</v>
@@ -7311,13 +7581,13 @@
         <v>90</v>
       </c>
       <c r="V89" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="W89" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z89" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -7334,22 +7604,25 @@
       <c r="AG89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:33">
+      <c r="AH89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
+        <v>164</v>
+      </c>
+      <c r="C90" t="s">
+        <v>166</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="E90">
-        <v>1</v>
+      <c r="E90" t="s">
+        <v>166</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -7358,16 +7631,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J90" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="R90">
         <v>89</v>
       </c>
       <c r="S90" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T90">
         <v>47</v>
@@ -7376,13 +7649,13 @@
         <v>91</v>
       </c>
       <c r="V90" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="W90" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z90" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -7399,22 +7672,25 @@
       <c r="AG90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:33">
+      <c r="AH90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
+        <v>164</v>
+      </c>
+      <c r="C91" t="s">
+        <v>166</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91">
-        <v>1</v>
+      <c r="E91" t="s">
+        <v>166</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -7423,16 +7699,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J91" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="R91">
         <v>90</v>
       </c>
       <c r="S91" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T91">
         <v>47</v>
@@ -7441,13 +7717,13 @@
         <v>91</v>
       </c>
       <c r="V91" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="W91" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z91" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -7464,13 +7740,16 @@
       <c r="AG91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:33">
+      <c r="AH91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34">
       <c r="A92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B92" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -7481,26 +7760,26 @@
       <c r="E92">
         <v>0</v>
       </c>
-      <c r="F92">
-        <v>1</v>
+      <c r="F92" t="s">
+        <v>166</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I92" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J92" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="R92">
         <v>91</v>
       </c>
       <c r="S92" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T92">
         <v>49</v>
@@ -7509,13 +7788,13 @@
         <v>93</v>
       </c>
       <c r="V92" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="W92" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z92" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -7532,13 +7811,16 @@
       <c r="AG92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:33">
+      <c r="AH92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B93" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -7549,26 +7831,26 @@
       <c r="E93">
         <v>0</v>
       </c>
-      <c r="F93">
-        <v>1</v>
+      <c r="F93" t="s">
+        <v>166</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I93" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J93" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="R93">
         <v>92</v>
       </c>
       <c r="S93" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T93">
         <v>49</v>
@@ -7577,13 +7859,13 @@
         <v>93</v>
       </c>
       <c r="V93" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="W93" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z93" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -7600,19 +7882,22 @@
       <c r="AG93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:33">
+      <c r="AH93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B94" t="s">
-        <v>155</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C94" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" t="s">
+        <v>166</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -7624,16 +7909,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J94" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R94">
         <v>93</v>
       </c>
       <c r="S94" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T94">
         <v>50</v>
@@ -7642,13 +7927,13 @@
         <v>94</v>
       </c>
       <c r="V94" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="W94" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z94" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -7665,22 +7950,25 @@
       <c r="AG94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:33">
+      <c r="AH94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C95" t="s">
+        <v>166</v>
+      </c>
+      <c r="D95" t="s">
+        <v>166</v>
+      </c>
+      <c r="E95" t="s">
+        <v>166</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7689,16 +7977,16 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J95" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="R95">
         <v>94</v>
       </c>
       <c r="S95" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T95">
         <v>51</v>
@@ -7707,13 +7995,13 @@
         <v>95</v>
       </c>
       <c r="V95" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="W95" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z95" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -7730,22 +8018,25 @@
       <c r="AG95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:33">
+      <c r="AH95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B96" t="s">
-        <v>157</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C96" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" t="s">
+        <v>166</v>
+      </c>
+      <c r="E96" t="s">
+        <v>166</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7754,16 +8045,16 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J96" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R96">
         <v>95</v>
       </c>
       <c r="S96" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T96">
         <v>51</v>
@@ -7772,13 +8063,13 @@
         <v>95</v>
       </c>
       <c r="V96" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="W96" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z96" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -7795,19 +8086,22 @@
       <c r="AG96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:33">
+      <c r="AH96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B97" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
-      <c r="D97">
-        <v>1</v>
+      <c r="D97" t="s">
+        <v>166</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -7819,16 +8113,16 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J97" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R97">
         <v>96</v>
       </c>
       <c r="S97" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T97">
         <v>51</v>
@@ -7837,13 +8131,13 @@
         <v>95</v>
       </c>
       <c r="V97" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="W97" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z97" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -7860,22 +8154,25 @@
       <c r="AG97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:33">
+      <c r="AH97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34">
       <c r="A98" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B98" t="s">
-        <v>163</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
+        <v>164</v>
+      </c>
+      <c r="C98" t="s">
+        <v>166</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
-      <c r="E98">
-        <v>1</v>
+      <c r="E98" t="s">
+        <v>166</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -7884,16 +8181,16 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J98" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="R98">
         <v>97</v>
       </c>
       <c r="S98" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T98">
         <v>51</v>
@@ -7902,13 +8199,13 @@
         <v>95</v>
       </c>
       <c r="V98" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="W98" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z98" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -7925,16 +8222,19 @@
       <c r="AG98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:33">
+      <c r="AH98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34">
       <c r="A99" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C99" t="s">
+        <v>166</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -7949,16 +8249,16 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J99" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R99">
         <v>98</v>
       </c>
       <c r="S99" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T99">
         <v>51</v>
@@ -7967,13 +8267,13 @@
         <v>95</v>
       </c>
       <c r="V99" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="W99" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z99" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -7990,19 +8290,22 @@
       <c r="AG99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:33">
+      <c r="AH99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34">
       <c r="A100" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B100" t="s">
-        <v>155</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C100" t="s">
+        <v>166</v>
+      </c>
+      <c r="D100" t="s">
+        <v>166</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -8014,16 +8317,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J100" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="R100">
         <v>99</v>
       </c>
       <c r="S100" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T100">
         <v>54</v>
@@ -8032,13 +8335,13 @@
         <v>99</v>
       </c>
       <c r="V100" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="W100" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z100" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -8055,22 +8358,25 @@
       <c r="AG100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:33">
+      <c r="AH100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B101" t="s">
-        <v>157</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C101" t="s">
+        <v>166</v>
+      </c>
+      <c r="D101" t="s">
+        <v>166</v>
+      </c>
+      <c r="E101" t="s">
+        <v>166</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -8079,16 +8385,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J101" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="R101">
         <v>100</v>
       </c>
       <c r="S101" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T101">
         <v>54</v>
@@ -8097,13 +8403,13 @@
         <v>99</v>
       </c>
       <c r="V101" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="W101" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z101" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -8120,22 +8426,25 @@
       <c r="AG101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:33">
+      <c r="AH101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B102" t="s">
-        <v>157</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C102" t="s">
+        <v>166</v>
+      </c>
+      <c r="D102" t="s">
+        <v>166</v>
+      </c>
+      <c r="E102" t="s">
+        <v>166</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -8144,16 +8453,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J102" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R102">
         <v>101</v>
       </c>
       <c r="S102" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T102">
         <v>54</v>
@@ -8162,13 +8471,13 @@
         <v>99</v>
       </c>
       <c r="V102" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="W102" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z102" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -8185,13 +8494,16 @@
       <c r="AG102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:33">
+      <c r="AH102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34">
       <c r="A103" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -8199,8 +8511,8 @@
       <c r="D103">
         <v>0</v>
       </c>
-      <c r="E103">
-        <v>1</v>
+      <c r="E103" t="s">
+        <v>166</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -8209,16 +8521,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J103" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R103">
         <v>102</v>
       </c>
       <c r="S103" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T103">
         <v>55</v>
@@ -8227,13 +8539,13 @@
         <v>100</v>
       </c>
       <c r="V103" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="W103" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z103" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -8250,19 +8562,22 @@
       <c r="AG103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:33">
+      <c r="AH103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34">
       <c r="A104" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B104" t="s">
-        <v>155</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C104" t="s">
+        <v>166</v>
+      </c>
+      <c r="D104" t="s">
+        <v>166</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -8274,16 +8589,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J104" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="R104">
         <v>103</v>
       </c>
       <c r="S104" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T104">
         <v>56</v>
@@ -8292,13 +8607,13 @@
         <v>101</v>
       </c>
       <c r="V104" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="W104" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z104" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -8315,22 +8630,25 @@
       <c r="AG104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:33">
+      <c r="AH104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B105" t="s">
-        <v>157</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C105" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105" t="s">
+        <v>166</v>
+      </c>
+      <c r="E105" t="s">
+        <v>166</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -8339,16 +8657,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J105" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="R105">
         <v>104</v>
       </c>
       <c r="S105" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T105">
         <v>57</v>
@@ -8357,13 +8675,13 @@
         <v>102</v>
       </c>
       <c r="V105" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="W105" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z105" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -8380,22 +8698,25 @@
       <c r="AG105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:33">
+      <c r="AH105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34">
       <c r="A106" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B106" t="s">
-        <v>157</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C106" t="s">
+        <v>166</v>
+      </c>
+      <c r="D106" t="s">
+        <v>166</v>
+      </c>
+      <c r="E106" t="s">
+        <v>166</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -8404,16 +8725,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J106" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="R106">
         <v>105</v>
       </c>
       <c r="S106" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T106">
         <v>57</v>
@@ -8422,13 +8743,13 @@
         <v>102</v>
       </c>
       <c r="V106" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="W106" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z106" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -8445,22 +8766,25 @@
       <c r="AG106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:33">
+      <c r="AH106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34">
       <c r="A107" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B107" t="s">
-        <v>157</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C107" t="s">
+        <v>166</v>
+      </c>
+      <c r="D107" t="s">
+        <v>166</v>
+      </c>
+      <c r="E107" t="s">
+        <v>166</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -8469,16 +8793,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J107" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="R107">
         <v>106</v>
       </c>
       <c r="S107" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T107">
         <v>59</v>
@@ -8487,13 +8811,13 @@
         <v>104</v>
       </c>
       <c r="V107" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W107" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z107" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -8510,19 +8834,22 @@
       <c r="AG107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:33">
+      <c r="AH107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34">
       <c r="A108" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B108" t="s">
-        <v>155</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C108" t="s">
+        <v>166</v>
+      </c>
+      <c r="D108" t="s">
+        <v>166</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -8534,16 +8861,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J108" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="R108">
         <v>107</v>
       </c>
       <c r="S108" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T108">
         <v>60</v>
@@ -8552,13 +8879,13 @@
         <v>105</v>
       </c>
       <c r="V108" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="W108" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="Z108" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -8575,22 +8902,25 @@
       <c r="AG108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:33">
+      <c r="AH108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34">
       <c r="A109" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B109" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
+      <c r="D109" t="s">
+        <v>166</v>
+      </c>
+      <c r="E109" t="s">
+        <v>166</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -8599,16 +8929,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J109" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="R109">
         <v>108</v>
       </c>
       <c r="S109" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T109">
         <v>61</v>
@@ -8617,13 +8947,13 @@
         <v>106</v>
       </c>
       <c r="V109" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="W109" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z109" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -8640,22 +8970,25 @@
       <c r="AG109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:33">
+      <c r="AH109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34">
       <c r="A110" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B110" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
+      <c r="D110" t="s">
+        <v>166</v>
+      </c>
+      <c r="E110" t="s">
+        <v>166</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -8664,16 +8997,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J110" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R110">
         <v>109</v>
       </c>
       <c r="S110" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T110">
         <v>65</v>
@@ -8682,13 +9015,13 @@
         <v>111</v>
       </c>
       <c r="V110" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="W110" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Z110" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -8705,16 +9038,19 @@
       <c r="AG110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:33">
+      <c r="AH110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34">
       <c r="A111" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B111" t="s">
-        <v>156</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C111" t="s">
+        <v>166</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -8729,16 +9065,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J111" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="R111">
         <v>110</v>
       </c>
       <c r="S111" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T111">
         <v>66</v>
@@ -8747,13 +9083,13 @@
         <v>113</v>
       </c>
       <c r="V111" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="W111" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Z111" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -8770,22 +9106,25 @@
       <c r="AG111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:33">
+      <c r="AH111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34">
       <c r="A112" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B112" t="s">
-        <v>157</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C112" t="s">
+        <v>166</v>
+      </c>
+      <c r="D112" t="s">
+        <v>166</v>
+      </c>
+      <c r="E112" t="s">
+        <v>166</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -8794,16 +9133,16 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J112" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="R112">
         <v>111</v>
       </c>
       <c r="S112" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T112">
         <v>68</v>
@@ -8812,13 +9151,13 @@
         <v>115</v>
       </c>
       <c r="V112" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="W112" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z112" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -8835,19 +9174,22 @@
       <c r="AG112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:33">
+      <c r="AH112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34">
       <c r="A113" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B113" t="s">
-        <v>155</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C113" t="s">
+        <v>166</v>
+      </c>
+      <c r="D113" t="s">
+        <v>166</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -8859,16 +9201,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J113" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="R113">
         <v>112</v>
       </c>
       <c r="S113" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T113">
         <v>71</v>
@@ -8877,13 +9219,13 @@
         <v>119</v>
       </c>
       <c r="V113" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="W113" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z113" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -8900,19 +9242,22 @@
       <c r="AG113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:33">
+      <c r="AH113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34">
       <c r="A114" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B114" t="s">
-        <v>155</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C114" t="s">
+        <v>166</v>
+      </c>
+      <c r="D114" t="s">
+        <v>166</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -8924,16 +9269,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J114" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="R114">
         <v>113</v>
       </c>
       <c r="S114" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T114">
         <v>71</v>
@@ -8942,13 +9287,13 @@
         <v>119</v>
       </c>
       <c r="V114" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="W114" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z114" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -8965,19 +9310,22 @@
       <c r="AG114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:33">
+      <c r="AH114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34">
       <c r="A115" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B115" t="s">
-        <v>155</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C115" t="s">
+        <v>166</v>
+      </c>
+      <c r="D115" t="s">
+        <v>166</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -8989,16 +9337,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J115" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="R115">
         <v>114</v>
       </c>
       <c r="S115" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T115">
         <v>71</v>
@@ -9007,13 +9355,13 @@
         <v>119</v>
       </c>
       <c r="V115" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="W115" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z115" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -9030,22 +9378,25 @@
       <c r="AG115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:33">
+      <c r="AH115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34">
       <c r="A116" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B116" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C116" t="s">
+        <v>166</v>
+      </c>
+      <c r="D116" t="s">
+        <v>166</v>
+      </c>
+      <c r="E116" t="s">
+        <v>166</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -9054,16 +9405,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J116" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="R116">
         <v>115</v>
       </c>
       <c r="S116" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T116">
         <v>71</v>
@@ -9072,13 +9423,13 @@
         <v>119</v>
       </c>
       <c r="V116" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="W116" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z116" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -9095,22 +9446,25 @@
       <c r="AG116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:33">
+      <c r="AH116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34">
       <c r="A117" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
+        <v>164</v>
+      </c>
+      <c r="C117" t="s">
+        <v>166</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
-      <c r="E117">
-        <v>1</v>
+      <c r="E117" t="s">
+        <v>166</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -9119,16 +9473,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J117" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="R117">
         <v>116</v>
       </c>
       <c r="S117" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T117">
         <v>71</v>
@@ -9137,13 +9491,13 @@
         <v>119</v>
       </c>
       <c r="V117" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="W117" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z117" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -9160,19 +9514,22 @@
       <c r="AG117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:33">
+      <c r="AH117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34">
       <c r="A118" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B118" t="s">
-        <v>155</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C118" t="s">
+        <v>166</v>
+      </c>
+      <c r="D118" t="s">
+        <v>166</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -9184,16 +9541,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J118" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="R118">
         <v>117</v>
       </c>
       <c r="S118" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T118">
         <v>71</v>
@@ -9202,13 +9559,13 @@
         <v>119</v>
       </c>
       <c r="V118" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="W118" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z118" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -9225,19 +9582,22 @@
       <c r="AG118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:33">
+      <c r="AH118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34">
       <c r="A119" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B119" t="s">
-        <v>155</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C119" t="s">
+        <v>166</v>
+      </c>
+      <c r="D119" t="s">
+        <v>166</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -9249,16 +9609,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J119" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="R119">
         <v>118</v>
       </c>
       <c r="S119" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T119">
         <v>71</v>
@@ -9267,13 +9627,13 @@
         <v>119</v>
       </c>
       <c r="V119" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="W119" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z119" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -9290,22 +9650,25 @@
       <c r="AG119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:33">
+      <c r="AH119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34">
       <c r="A120" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B120" t="s">
-        <v>163</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
+        <v>164</v>
+      </c>
+      <c r="C120" t="s">
+        <v>166</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
-      <c r="E120">
-        <v>1</v>
+      <c r="E120" t="s">
+        <v>166</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -9314,16 +9677,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J120" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="R120">
         <v>119</v>
       </c>
       <c r="S120" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T120">
         <v>71</v>
@@ -9332,13 +9695,13 @@
         <v>119</v>
       </c>
       <c r="V120" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="W120" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z120" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -9355,16 +9718,19 @@
       <c r="AG120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:33">
+      <c r="AH120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:34">
       <c r="A121" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B121" t="s">
-        <v>156</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C121" t="s">
+        <v>166</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -9379,16 +9745,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J121" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="R121">
         <v>120</v>
       </c>
       <c r="S121" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T121">
         <v>71</v>
@@ -9397,13 +9763,13 @@
         <v>119</v>
       </c>
       <c r="V121" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="W121" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z121" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -9418,6 +9784,9 @@
         <v>0</v>
       </c>
       <c r="AG121">
+        <v>0</v>
+      </c>
+      <c r="AH121">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p19.xlsx
+++ b/files/separadas/repeat_p19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="354">
   <si>
     <t>p19_nom</t>
   </si>
@@ -107,12 +107,6 @@
   </si>
   <si>
     <t>c3</t>
-  </si>
-  <si>
-    <t>s_i</t>
-  </si>
-  <si>
-    <t>c4</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1472,13 +1466,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH121"/>
+  <dimension ref="A1:AF121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1575,19 +1569,13 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1605,16 +1593,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" t="s">
         <v>180</v>
       </c>
-      <c r="J2" t="s">
-        <v>182</v>
-      </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -1623,13 +1611,13 @@
         <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="W2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Z2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1643,19 +1631,13 @@
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1673,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T3">
         <v>4</v>
@@ -1694,13 +1676,13 @@
         <v>9</v>
       </c>
       <c r="V3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="W3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Z3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1714,19 +1696,13 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1744,16 +1720,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T4">
         <v>6</v>
@@ -1762,13 +1738,13 @@
         <v>12</v>
       </c>
       <c r="V4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="W4" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1782,19 +1758,13 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1812,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T5">
         <v>6</v>
@@ -1830,13 +1800,13 @@
         <v>12</v>
       </c>
       <c r="V5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="W5" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1850,19 +1820,13 @@
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1880,16 +1844,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T6">
         <v>6</v>
@@ -1898,13 +1862,13 @@
         <v>12</v>
       </c>
       <c r="V6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="W6" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1918,19 +1882,13 @@
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1948,16 +1906,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T7">
         <v>6</v>
@@ -1966,13 +1924,13 @@
         <v>12</v>
       </c>
       <c r="V7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="W7" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1986,19 +1944,13 @@
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2016,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T8">
         <v>7</v>
@@ -2034,13 +1986,13 @@
         <v>13</v>
       </c>
       <c r="V8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="W8" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2054,19 +2006,13 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2084,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T9">
         <v>8</v>
@@ -2102,13 +2048,13 @@
         <v>14</v>
       </c>
       <c r="V9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="W9" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Z9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2122,19 +2068,13 @@
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2152,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R10">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T10">
         <v>9</v>
@@ -2170,13 +2110,13 @@
         <v>15</v>
       </c>
       <c r="V10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="W10" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2190,19 +2130,13 @@
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2220,16 +2154,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R11">
         <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T11">
         <v>9</v>
@@ -2238,13 +2172,13 @@
         <v>15</v>
       </c>
       <c r="V11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="W11" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2258,19 +2192,13 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2288,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R12">
         <v>11</v>
       </c>
       <c r="S12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T12">
         <v>9</v>
@@ -2306,13 +2234,13 @@
         <v>15</v>
       </c>
       <c r="V12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="W12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2326,19 +2254,13 @@
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2356,16 +2278,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T13">
         <v>9</v>
@@ -2374,13 +2296,13 @@
         <v>15</v>
       </c>
       <c r="V13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="W13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2394,19 +2316,13 @@
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2424,16 +2340,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R14">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T14">
         <v>10</v>
@@ -2442,13 +2358,13 @@
         <v>16</v>
       </c>
       <c r="V14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="W14" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2462,19 +2378,13 @@
       <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2492,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R15">
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T15">
         <v>10</v>
@@ -2513,13 +2423,13 @@
         <v>16</v>
       </c>
       <c r="V15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="W15" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2533,19 +2443,13 @@
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2563,16 +2467,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R16">
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T16">
         <v>11</v>
@@ -2581,13 +2485,13 @@
         <v>17</v>
       </c>
       <c r="V16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="W16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2601,19 +2505,13 @@
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2631,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R17">
         <v>16</v>
       </c>
       <c r="S17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T17">
         <v>11</v>
@@ -2649,13 +2547,13 @@
         <v>17</v>
       </c>
       <c r="V17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="W17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2669,19 +2567,13 @@
       <c r="AF17">
         <v>0</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2699,16 +2591,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R18">
         <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T18">
         <v>11</v>
@@ -2717,13 +2609,13 @@
         <v>17</v>
       </c>
       <c r="V18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="W18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2737,19 +2629,13 @@
       <c r="AF18">
         <v>0</v>
       </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2767,16 +2653,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R19">
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T19">
         <v>11</v>
@@ -2785,13 +2671,13 @@
         <v>17</v>
       </c>
       <c r="V19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="W19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2805,19 +2691,13 @@
       <c r="AF19">
         <v>0</v>
       </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2835,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R20">
         <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T20">
         <v>11</v>
@@ -2853,13 +2733,13 @@
         <v>17</v>
       </c>
       <c r="V20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="W20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2873,19 +2753,13 @@
       <c r="AF20">
         <v>0</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2903,16 +2777,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R21">
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T21">
         <v>11</v>
@@ -2921,13 +2795,13 @@
         <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="W21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -2941,19 +2815,13 @@
       <c r="AF21">
         <v>0</v>
       </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2971,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R22">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T22">
         <v>11</v>
@@ -2989,13 +2857,13 @@
         <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="W22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3009,19 +2877,13 @@
       <c r="AF22">
         <v>0</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3039,16 +2901,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="R23">
         <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T23">
         <v>12</v>
@@ -3057,13 +2919,13 @@
         <v>18</v>
       </c>
       <c r="V23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="W23" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Z23" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -3077,19 +2939,13 @@
       <c r="AF23">
         <v>0</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3107,16 +2963,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R24">
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T24">
         <v>13</v>
@@ -3125,13 +2981,13 @@
         <v>20</v>
       </c>
       <c r="V24" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="W24" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3145,19 +3001,13 @@
       <c r="AF24">
         <v>0</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3175,16 +3025,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R25">
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T25">
         <v>14</v>
@@ -3193,13 +3043,13 @@
         <v>21</v>
       </c>
       <c r="V25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="W25" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Z25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3213,19 +3063,13 @@
       <c r="AF25">
         <v>0</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3243,16 +3087,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R26">
         <v>25</v>
       </c>
       <c r="S26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T26">
         <v>15</v>
@@ -3261,13 +3105,13 @@
         <v>22</v>
       </c>
       <c r="V26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W26" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z26" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3281,19 +3125,13 @@
       <c r="AF26">
         <v>0</v>
       </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3311,19 +3149,19 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R27">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T27">
         <v>15</v>
@@ -3332,13 +3170,13 @@
         <v>22</v>
       </c>
       <c r="V27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="W27" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z27" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3352,19 +3190,13 @@
       <c r="AF27">
         <v>0</v>
       </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34">
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3382,16 +3214,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R28">
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T28">
         <v>16</v>
@@ -3400,13 +3232,13 @@
         <v>25</v>
       </c>
       <c r="V28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="W28" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3420,19 +3252,13 @@
       <c r="AF28">
         <v>0</v>
       </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3450,16 +3276,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="R29">
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T29">
         <v>17</v>
@@ -3468,13 +3294,13 @@
         <v>26</v>
       </c>
       <c r="V29" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="W29" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3488,19 +3314,13 @@
       <c r="AF29">
         <v>0</v>
       </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34">
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3518,16 +3338,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R30">
         <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T30">
         <v>18</v>
@@ -3536,13 +3356,13 @@
         <v>27</v>
       </c>
       <c r="V30" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="W30" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Z30" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3556,19 +3376,13 @@
       <c r="AF30">
         <v>0</v>
       </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34">
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3586,19 +3400,19 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R31">
         <v>30</v>
       </c>
       <c r="S31" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T31">
         <v>19</v>
@@ -3607,13 +3421,13 @@
         <v>30</v>
       </c>
       <c r="V31" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="W31" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3627,19 +3441,13 @@
       <c r="AF31">
         <v>0</v>
       </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34">
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3657,19 +3465,19 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R32">
         <v>31</v>
       </c>
       <c r="S32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T32">
         <v>19</v>
@@ -3678,13 +3486,13 @@
         <v>30</v>
       </c>
       <c r="V32" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="W32" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z32" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -3698,19 +3506,13 @@
       <c r="AF32">
         <v>0</v>
       </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34">
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3728,16 +3530,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R33">
         <v>32</v>
       </c>
       <c r="S33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T33">
         <v>19</v>
@@ -3746,13 +3548,13 @@
         <v>30</v>
       </c>
       <c r="V33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="W33" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z33" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -3766,19 +3568,13 @@
       <c r="AF33">
         <v>0</v>
       </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34">
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3796,19 +3592,19 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="R34">
         <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T34">
         <v>19</v>
@@ -3817,13 +3613,13 @@
         <v>30</v>
       </c>
       <c r="V34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="W34" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z34" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -3837,19 +3633,13 @@
       <c r="AF34">
         <v>0</v>
       </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34">
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3867,19 +3657,19 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R35">
         <v>34</v>
       </c>
       <c r="S35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T35">
         <v>19</v>
@@ -3888,13 +3678,13 @@
         <v>30</v>
       </c>
       <c r="V35" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="W35" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z35" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -3908,19 +3698,13 @@
       <c r="AF35">
         <v>0</v>
       </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34">
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3938,16 +3722,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R36">
         <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T36">
         <v>21</v>
@@ -3956,13 +3740,13 @@
         <v>34</v>
       </c>
       <c r="V36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="W36" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z36" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -3976,19 +3760,13 @@
       <c r="AF36">
         <v>0</v>
       </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34">
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -4006,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R37">
         <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T37">
         <v>22</v>
@@ -4024,13 +3802,13 @@
         <v>37</v>
       </c>
       <c r="V37" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="W37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z37" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -4044,19 +3822,13 @@
       <c r="AF37">
         <v>0</v>
       </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34">
+    </row>
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4074,16 +3846,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R38">
         <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T38">
         <v>22</v>
@@ -4092,13 +3864,13 @@
         <v>37</v>
       </c>
       <c r="V38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="W38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z38" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -4112,19 +3884,13 @@
       <c r="AF38">
         <v>0</v>
       </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34">
+    </row>
+    <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4142,16 +3908,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J39" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R39">
         <v>38</v>
       </c>
       <c r="S39" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T39">
         <v>22</v>
@@ -4160,13 +3926,13 @@
         <v>37</v>
       </c>
       <c r="V39" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="W39" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z39" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -4180,19 +3946,13 @@
       <c r="AF39">
         <v>0</v>
       </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34">
+    </row>
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4210,16 +3970,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J40" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R40">
         <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T40">
         <v>22</v>
@@ -4228,13 +3988,13 @@
         <v>37</v>
       </c>
       <c r="V40" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="W40" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z40" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -4248,19 +4008,13 @@
       <c r="AF40">
         <v>0</v>
       </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34">
+    </row>
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4278,16 +4032,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R41">
         <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T41">
         <v>22</v>
@@ -4296,13 +4050,13 @@
         <v>37</v>
       </c>
       <c r="V41" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="W41" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z41" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -4316,19 +4070,13 @@
       <c r="AF41">
         <v>0</v>
       </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:34">
+    </row>
+    <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4346,16 +4094,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J42" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R42">
         <v>41</v>
       </c>
       <c r="S42" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T42">
         <v>22</v>
@@ -4364,13 +4112,13 @@
         <v>37</v>
       </c>
       <c r="V42" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="W42" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z42" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -4384,19 +4132,13 @@
       <c r="AF42">
         <v>0</v>
       </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34">
+    </row>
+    <row r="43" spans="1:32">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4414,16 +4156,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J43" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="R43">
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T43">
         <v>22</v>
@@ -4432,13 +4174,13 @@
         <v>37</v>
       </c>
       <c r="V43" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="W43" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z43" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -4452,19 +4194,13 @@
       <c r="AF43">
         <v>0</v>
       </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34">
+    </row>
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4482,16 +4218,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="R44">
         <v>43</v>
       </c>
       <c r="S44" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T44">
         <v>22</v>
@@ -4500,13 +4236,13 @@
         <v>37</v>
       </c>
       <c r="V44" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="W44" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z44" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -4520,19 +4256,13 @@
       <c r="AF44">
         <v>0</v>
       </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34">
+    </row>
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4550,16 +4280,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R45">
         <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T45">
         <v>23</v>
@@ -4568,13 +4298,13 @@
         <v>38</v>
       </c>
       <c r="V45" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="W45" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z45" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -4588,19 +4318,13 @@
       <c r="AF45">
         <v>0</v>
       </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34">
+    </row>
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4618,16 +4342,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J46" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="R46">
         <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T46">
         <v>23</v>
@@ -4636,13 +4360,13 @@
         <v>38</v>
       </c>
       <c r="V46" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="W46" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z46" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -4656,19 +4380,13 @@
       <c r="AF46">
         <v>0</v>
       </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34">
+    </row>
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4686,16 +4404,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J47" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="R47">
         <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T47">
         <v>23</v>
@@ -4704,13 +4422,13 @@
         <v>38</v>
       </c>
       <c r="V47" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="W47" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z47" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -4724,19 +4442,13 @@
       <c r="AF47">
         <v>0</v>
       </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34">
+    </row>
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4754,16 +4466,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J48" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="R48">
         <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T48">
         <v>23</v>
@@ -4772,13 +4484,13 @@
         <v>38</v>
       </c>
       <c r="V48" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="W48" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z48" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -4792,19 +4504,13 @@
       <c r="AF48">
         <v>0</v>
       </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34">
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4822,16 +4528,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J49" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="R49">
         <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T49">
         <v>24</v>
@@ -4840,13 +4546,13 @@
         <v>51</v>
       </c>
       <c r="V49" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="W49" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z49" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -4860,19 +4566,13 @@
       <c r="AF49">
         <v>0</v>
       </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34">
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4890,19 +4590,19 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J50" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="R50">
         <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T50">
         <v>24</v>
@@ -4911,13 +4611,13 @@
         <v>51</v>
       </c>
       <c r="V50" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="W50" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z50" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -4931,19 +4631,13 @@
       <c r="AF50">
         <v>0</v>
       </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34">
+    </row>
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4961,19 +4655,19 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J51" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R51">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T51">
         <v>24</v>
@@ -4982,13 +4676,13 @@
         <v>51</v>
       </c>
       <c r="V51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="W51" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z51" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -5002,19 +4696,13 @@
       <c r="AF51">
         <v>0</v>
       </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34">
+    </row>
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5032,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R52">
         <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T52">
         <v>27</v>
@@ -5053,13 +4741,13 @@
         <v>56</v>
       </c>
       <c r="V52" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="W52" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z52" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -5073,19 +4761,13 @@
       <c r="AF52">
         <v>0</v>
       </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34">
+    </row>
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5103,19 +4785,19 @@
         <v>0</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I53" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J53" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="R53">
         <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T53">
         <v>27</v>
@@ -5124,13 +4806,13 @@
         <v>56</v>
       </c>
       <c r="V53" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="W53" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z53" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -5144,19 +4826,13 @@
       <c r="AF53">
         <v>0</v>
       </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34">
+    </row>
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5174,16 +4850,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R54">
         <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T54">
         <v>27</v>
@@ -5192,13 +4868,13 @@
         <v>56</v>
       </c>
       <c r="V54" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="W54" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z54" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -5212,19 +4888,13 @@
       <c r="AF54">
         <v>0</v>
       </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34">
+    </row>
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5242,16 +4912,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R55">
         <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T55">
         <v>28</v>
@@ -5260,13 +4930,13 @@
         <v>57</v>
       </c>
       <c r="V55" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="W55" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z55" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -5280,19 +4950,13 @@
       <c r="AF55">
         <v>0</v>
       </c>
-      <c r="AG55">
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34">
+    </row>
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5310,16 +4974,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="R56">
         <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T56">
         <v>29</v>
@@ -5328,13 +4992,13 @@
         <v>58</v>
       </c>
       <c r="V56" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="W56" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z56" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -5348,19 +5012,13 @@
       <c r="AF56">
         <v>0</v>
       </c>
-      <c r="AG56">
-        <v>0</v>
-      </c>
-      <c r="AH56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34">
+    </row>
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5378,16 +5036,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J57" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="R57">
         <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T57">
         <v>29</v>
@@ -5396,13 +5054,13 @@
         <v>58</v>
       </c>
       <c r="V57" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="W57" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z57" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -5416,19 +5074,13 @@
       <c r="AF57">
         <v>0</v>
       </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34">
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5446,16 +5098,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J58" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="R58">
         <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T58">
         <v>30</v>
@@ -5464,13 +5116,13 @@
         <v>59</v>
       </c>
       <c r="V58" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="W58" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z58" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -5484,19 +5136,13 @@
       <c r="AF58">
         <v>0</v>
       </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34">
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5514,16 +5160,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J59" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="R59">
         <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T59">
         <v>30</v>
@@ -5532,13 +5178,13 @@
         <v>59</v>
       </c>
       <c r="V59" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="W59" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z59" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -5552,19 +5198,13 @@
       <c r="AF59">
         <v>0</v>
       </c>
-      <c r="AG59">
-        <v>0</v>
-      </c>
-      <c r="AH59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34">
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5582,16 +5222,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J60" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="R60">
         <v>59</v>
       </c>
       <c r="S60" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T60">
         <v>30</v>
@@ -5600,13 +5240,13 @@
         <v>59</v>
       </c>
       <c r="V60" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="W60" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z60" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -5620,19 +5260,13 @@
       <c r="AF60">
         <v>0</v>
       </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34">
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5650,16 +5284,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J61" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="R61">
         <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -5668,13 +5302,13 @@
         <v>59</v>
       </c>
       <c r="V61" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="W61" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z61" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -5688,19 +5322,13 @@
       <c r="AF61">
         <v>0</v>
       </c>
-      <c r="AG61">
-        <v>0</v>
-      </c>
-      <c r="AH61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34">
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -5718,16 +5346,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J62" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R62">
         <v>61</v>
       </c>
       <c r="S62" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T62">
         <v>31</v>
@@ -5736,13 +5364,13 @@
         <v>60</v>
       </c>
       <c r="V62" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="W62" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z62" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -5756,19 +5384,13 @@
       <c r="AF62">
         <v>0</v>
       </c>
-      <c r="AG62">
-        <v>0</v>
-      </c>
-      <c r="AH62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34">
+    </row>
+    <row r="63" spans="1:32">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5786,16 +5408,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J63" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="R63">
         <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T63">
         <v>32</v>
@@ -5804,13 +5426,13 @@
         <v>61</v>
       </c>
       <c r="V63" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="W63" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z63" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -5824,19 +5446,13 @@
       <c r="AF63">
         <v>0</v>
       </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34">
+    </row>
+    <row r="64" spans="1:32">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5854,16 +5470,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J64" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R64">
         <v>63</v>
       </c>
       <c r="S64" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T64">
         <v>32</v>
@@ -5872,13 +5488,13 @@
         <v>61</v>
       </c>
       <c r="V64" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="W64" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z64" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -5892,19 +5508,13 @@
       <c r="AF64">
         <v>0</v>
       </c>
-      <c r="AG64">
-        <v>0</v>
-      </c>
-      <c r="AH64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34">
+    </row>
+    <row r="65" spans="1:32">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5922,16 +5532,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J65" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R65">
         <v>64</v>
       </c>
       <c r="S65" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T65">
         <v>33</v>
@@ -5940,13 +5550,13 @@
         <v>63</v>
       </c>
       <c r="V65" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="W65" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z65" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -5960,19 +5570,13 @@
       <c r="AF65">
         <v>0</v>
       </c>
-      <c r="AG65">
-        <v>0</v>
-      </c>
-      <c r="AH65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34">
+    </row>
+    <row r="66" spans="1:32">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5990,16 +5594,16 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J66" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R66">
         <v>65</v>
       </c>
       <c r="S66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T66">
         <v>33</v>
@@ -6008,13 +5612,13 @@
         <v>63</v>
       </c>
       <c r="V66" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="W66" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z66" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -6028,19 +5632,13 @@
       <c r="AF66">
         <v>0</v>
       </c>
-      <c r="AG66">
-        <v>0</v>
-      </c>
-      <c r="AH66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34">
+    </row>
+    <row r="67" spans="1:32">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6058,16 +5656,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J67" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="R67">
         <v>66</v>
       </c>
       <c r="S67" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T67">
         <v>33</v>
@@ -6076,13 +5674,13 @@
         <v>63</v>
       </c>
       <c r="V67" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="W67" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z67" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -6096,19 +5694,13 @@
       <c r="AF67">
         <v>0</v>
       </c>
-      <c r="AG67">
-        <v>0</v>
-      </c>
-      <c r="AH67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34">
+    </row>
+    <row r="68" spans="1:32">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6126,16 +5718,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J68" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="R68">
         <v>67</v>
       </c>
       <c r="S68" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T68">
         <v>33</v>
@@ -6144,13 +5736,13 @@
         <v>63</v>
       </c>
       <c r="V68" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="W68" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z68" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -6164,19 +5756,13 @@
       <c r="AF68">
         <v>0</v>
       </c>
-      <c r="AG68">
-        <v>0</v>
-      </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34">
+    </row>
+    <row r="69" spans="1:32">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6194,16 +5780,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J69" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="R69">
         <v>68</v>
       </c>
       <c r="S69" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T69">
         <v>33</v>
@@ -6212,13 +5798,13 @@
         <v>63</v>
       </c>
       <c r="V69" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="W69" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z69" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -6232,19 +5818,13 @@
       <c r="AF69">
         <v>0</v>
       </c>
-      <c r="AG69">
-        <v>0</v>
-      </c>
-      <c r="AH69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34">
+    </row>
+    <row r="70" spans="1:32">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6262,16 +5842,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J70" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R70">
         <v>69</v>
       </c>
       <c r="S70" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T70">
         <v>33</v>
@@ -6280,13 +5860,13 @@
         <v>63</v>
       </c>
       <c r="V70" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="W70" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z70" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -6300,19 +5880,13 @@
       <c r="AF70">
         <v>0</v>
       </c>
-      <c r="AG70">
-        <v>0</v>
-      </c>
-      <c r="AH70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34">
+    </row>
+    <row r="71" spans="1:32">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6330,16 +5904,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="R71">
         <v>70</v>
       </c>
       <c r="S71" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T71">
         <v>33</v>
@@ -6348,13 +5922,13 @@
         <v>63</v>
       </c>
       <c r="V71" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="W71" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z71" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -6368,19 +5942,13 @@
       <c r="AF71">
         <v>0</v>
       </c>
-      <c r="AG71">
-        <v>0</v>
-      </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34">
+    </row>
+    <row r="72" spans="1:32">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6398,16 +5966,16 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J72" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="R72">
         <v>71</v>
       </c>
       <c r="S72" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T72">
         <v>33</v>
@@ -6416,13 +5984,13 @@
         <v>63</v>
       </c>
       <c r="V72" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="W72" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z72" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -6436,19 +6004,13 @@
       <c r="AF72">
         <v>0</v>
       </c>
-      <c r="AG72">
-        <v>0</v>
-      </c>
-      <c r="AH72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34">
+    </row>
+    <row r="73" spans="1:32">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6466,16 +6028,16 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J73" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="R73">
         <v>72</v>
       </c>
       <c r="S73" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T73">
         <v>34</v>
@@ -6484,13 +6046,13 @@
         <v>64</v>
       </c>
       <c r="V73" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="W73" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z73" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -6504,19 +6066,13 @@
       <c r="AF73">
         <v>0</v>
       </c>
-      <c r="AG73">
-        <v>0</v>
-      </c>
-      <c r="AH73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34">
+    </row>
+    <row r="74" spans="1:32">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -6534,16 +6090,16 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J74" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="R74">
         <v>73</v>
       </c>
       <c r="S74" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T74">
         <v>34</v>
@@ -6552,13 +6108,13 @@
         <v>64</v>
       </c>
       <c r="V74" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="W74" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z74" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -6572,19 +6128,13 @@
       <c r="AF74">
         <v>0</v>
       </c>
-      <c r="AG74">
-        <v>0</v>
-      </c>
-      <c r="AH74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:34">
+    </row>
+    <row r="75" spans="1:32">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6602,16 +6152,16 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J75" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="R75">
         <v>74</v>
       </c>
       <c r="S75" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T75">
         <v>36</v>
@@ -6620,13 +6170,13 @@
         <v>77</v>
       </c>
       <c r="V75" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="W75" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z75" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -6640,19 +6190,13 @@
       <c r="AF75">
         <v>0</v>
       </c>
-      <c r="AG75">
-        <v>0</v>
-      </c>
-      <c r="AH75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34">
+    </row>
+    <row r="76" spans="1:32">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6670,16 +6214,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J76" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R76">
         <v>75</v>
       </c>
       <c r="S76" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T76">
         <v>37</v>
@@ -6688,13 +6232,13 @@
         <v>78</v>
       </c>
       <c r="V76" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="W76" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z76" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -6708,19 +6252,13 @@
       <c r="AF76">
         <v>0</v>
       </c>
-      <c r="AG76">
-        <v>0</v>
-      </c>
-      <c r="AH76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34">
+    </row>
+    <row r="77" spans="1:32">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6738,16 +6276,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J77" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="R77">
         <v>76</v>
       </c>
       <c r="S77" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T77">
         <v>37</v>
@@ -6756,13 +6294,13 @@
         <v>78</v>
       </c>
       <c r="V77" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="W77" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z77" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -6776,19 +6314,13 @@
       <c r="AF77">
         <v>0</v>
       </c>
-      <c r="AG77">
-        <v>0</v>
-      </c>
-      <c r="AH77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34">
+    </row>
+    <row r="78" spans="1:32">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -6806,16 +6338,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J78" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="R78">
         <v>77</v>
       </c>
       <c r="S78" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T78">
         <v>37</v>
@@ -6824,13 +6356,13 @@
         <v>78</v>
       </c>
       <c r="V78" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="W78" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z78" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -6844,19 +6376,13 @@
       <c r="AF78">
         <v>0</v>
       </c>
-      <c r="AG78">
-        <v>0</v>
-      </c>
-      <c r="AH78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34">
+    </row>
+    <row r="79" spans="1:32">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -6874,16 +6400,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J79" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="R79">
         <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T79">
         <v>37</v>
@@ -6892,13 +6418,13 @@
         <v>78</v>
       </c>
       <c r="V79" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="W79" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z79" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -6912,19 +6438,13 @@
       <c r="AF79">
         <v>0</v>
       </c>
-      <c r="AG79">
-        <v>0</v>
-      </c>
-      <c r="AH79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:34">
+    </row>
+    <row r="80" spans="1:32">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -6942,16 +6462,16 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J80" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R80">
         <v>79</v>
       </c>
       <c r="S80" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T80">
         <v>39</v>
@@ -6960,13 +6480,13 @@
         <v>81</v>
       </c>
       <c r="V80" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="W80" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z80" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -6980,19 +6500,13 @@
       <c r="AF80">
         <v>0</v>
       </c>
-      <c r="AG80">
-        <v>0</v>
-      </c>
-      <c r="AH80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:34">
+    </row>
+    <row r="81" spans="1:32">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -7010,16 +6524,16 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="R81">
         <v>80</v>
       </c>
       <c r="S81" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T81">
         <v>40</v>
@@ -7028,13 +6542,13 @@
         <v>82</v>
       </c>
       <c r="V81" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="W81" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z81" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -7048,19 +6562,13 @@
       <c r="AF81">
         <v>0</v>
       </c>
-      <c r="AG81">
-        <v>0</v>
-      </c>
-      <c r="AH81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34">
+    </row>
+    <row r="82" spans="1:32">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7078,16 +6586,16 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J82" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="R82">
         <v>81</v>
       </c>
       <c r="S82" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T82">
         <v>42</v>
@@ -7096,13 +6604,13 @@
         <v>84</v>
       </c>
       <c r="V82" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="W82" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z82" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -7116,19 +6624,13 @@
       <c r="AF82">
         <v>0</v>
       </c>
-      <c r="AG82">
-        <v>0</v>
-      </c>
-      <c r="AH82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:34">
+    </row>
+    <row r="83" spans="1:32">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7146,16 +6648,16 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J83" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R83">
         <v>82</v>
       </c>
       <c r="S83" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T83">
         <v>44</v>
@@ -7164,13 +6666,13 @@
         <v>87</v>
       </c>
       <c r="V83" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="W83" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z83" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -7184,19 +6686,13 @@
       <c r="AF83">
         <v>0</v>
       </c>
-      <c r="AG83">
-        <v>0</v>
-      </c>
-      <c r="AH83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:34">
+    </row>
+    <row r="84" spans="1:32">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7214,16 +6710,16 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J84" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R84">
         <v>83</v>
       </c>
       <c r="S84" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T84">
         <v>44</v>
@@ -7232,13 +6728,13 @@
         <v>87</v>
       </c>
       <c r="V84" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="W84" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z84" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -7252,19 +6748,13 @@
       <c r="AF84">
         <v>0</v>
       </c>
-      <c r="AG84">
-        <v>0</v>
-      </c>
-      <c r="AH84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:34">
+    </row>
+    <row r="85" spans="1:32">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7282,16 +6772,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J85" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="R85">
         <v>84</v>
       </c>
       <c r="S85" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T85">
         <v>44</v>
@@ -7300,13 +6790,13 @@
         <v>87</v>
       </c>
       <c r="V85" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="W85" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z85" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -7320,19 +6810,13 @@
       <c r="AF85">
         <v>0</v>
       </c>
-      <c r="AG85">
-        <v>0</v>
-      </c>
-      <c r="AH85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:34">
+    </row>
+    <row r="86" spans="1:32">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -7350,19 +6834,19 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J86" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="R86">
         <v>85</v>
       </c>
       <c r="S86" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T86">
         <v>45</v>
@@ -7371,13 +6855,13 @@
         <v>88</v>
       </c>
       <c r="V86" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="W86" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z86" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -7391,19 +6875,13 @@
       <c r="AF86">
         <v>0</v>
       </c>
-      <c r="AG86">
-        <v>0</v>
-      </c>
-      <c r="AH86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:34">
+    </row>
+    <row r="87" spans="1:32">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -7421,19 +6899,19 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I87" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J87" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="R87">
         <v>86</v>
       </c>
       <c r="S87" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T87">
         <v>45</v>
@@ -7442,13 +6920,13 @@
         <v>88</v>
       </c>
       <c r="V87" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="W87" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z87" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -7462,19 +6940,13 @@
       <c r="AF87">
         <v>0</v>
       </c>
-      <c r="AG87">
-        <v>0</v>
-      </c>
-      <c r="AH87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:34">
+    </row>
+    <row r="88" spans="1:32">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7492,16 +6964,16 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="R88">
         <v>87</v>
       </c>
       <c r="S88" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T88">
         <v>46</v>
@@ -7510,13 +6982,13 @@
         <v>90</v>
       </c>
       <c r="V88" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W88" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z88" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -7530,19 +7002,13 @@
       <c r="AF88">
         <v>0</v>
       </c>
-      <c r="AG88">
-        <v>0</v>
-      </c>
-      <c r="AH88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:34">
+    </row>
+    <row r="89" spans="1:32">
       <c r="A89" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B89" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7560,16 +7026,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J89" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="R89">
         <v>88</v>
       </c>
       <c r="S89" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T89">
         <v>46</v>
@@ -7578,13 +7044,13 @@
         <v>90</v>
       </c>
       <c r="V89" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="W89" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z89" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -7598,19 +7064,13 @@
       <c r="AF89">
         <v>0</v>
       </c>
-      <c r="AG89">
-        <v>0</v>
-      </c>
-      <c r="AH89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:34">
+    </row>
+    <row r="90" spans="1:32">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7628,16 +7088,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J90" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="R90">
         <v>89</v>
       </c>
       <c r="S90" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T90">
         <v>47</v>
@@ -7646,13 +7106,13 @@
         <v>91</v>
       </c>
       <c r="V90" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="W90" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z90" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -7666,19 +7126,13 @@
       <c r="AF90">
         <v>0</v>
       </c>
-      <c r="AG90">
-        <v>0</v>
-      </c>
-      <c r="AH90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:34">
+    </row>
+    <row r="91" spans="1:32">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B91" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7696,16 +7150,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J91" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="R91">
         <v>90</v>
       </c>
       <c r="S91" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T91">
         <v>47</v>
@@ -7714,13 +7168,13 @@
         <v>91</v>
       </c>
       <c r="V91" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="W91" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z91" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -7734,19 +7188,13 @@
       <c r="AF91">
         <v>0</v>
       </c>
-      <c r="AG91">
-        <v>0</v>
-      </c>
-      <c r="AH91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:34">
+    </row>
+    <row r="92" spans="1:32">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -7764,19 +7212,19 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J92" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R92">
         <v>91</v>
       </c>
       <c r="S92" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T92">
         <v>49</v>
@@ -7785,13 +7233,13 @@
         <v>93</v>
       </c>
       <c r="V92" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W92" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z92" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -7805,19 +7253,13 @@
       <c r="AF92">
         <v>0</v>
       </c>
-      <c r="AG92">
-        <v>0</v>
-      </c>
-      <c r="AH92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:34">
+    </row>
+    <row r="93" spans="1:32">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -7835,19 +7277,19 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J93" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="R93">
         <v>92</v>
       </c>
       <c r="S93" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T93">
         <v>49</v>
@@ -7856,13 +7298,13 @@
         <v>93</v>
       </c>
       <c r="V93" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W93" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z93" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -7876,19 +7318,13 @@
       <c r="AF93">
         <v>0</v>
       </c>
-      <c r="AG93">
-        <v>0</v>
-      </c>
-      <c r="AH93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:34">
+    </row>
+    <row r="94" spans="1:32">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7906,16 +7342,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J94" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R94">
         <v>93</v>
       </c>
       <c r="S94" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T94">
         <v>50</v>
@@ -7924,13 +7360,13 @@
         <v>94</v>
       </c>
       <c r="V94" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W94" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z94" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -7944,19 +7380,13 @@
       <c r="AF94">
         <v>0</v>
       </c>
-      <c r="AG94">
-        <v>0</v>
-      </c>
-      <c r="AH94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:34">
+    </row>
+    <row r="95" spans="1:32">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B95" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7974,16 +7404,16 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J95" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R95">
         <v>94</v>
       </c>
       <c r="S95" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T95">
         <v>51</v>
@@ -7992,13 +7422,13 @@
         <v>95</v>
       </c>
       <c r="V95" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W95" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z95" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -8012,19 +7442,13 @@
       <c r="AF95">
         <v>0</v>
       </c>
-      <c r="AG95">
-        <v>0</v>
-      </c>
-      <c r="AH95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:34">
+    </row>
+    <row r="96" spans="1:32">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B96" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -8042,16 +7466,16 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J96" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R96">
         <v>95</v>
       </c>
       <c r="S96" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T96">
         <v>51</v>
@@ -8060,13 +7484,13 @@
         <v>95</v>
       </c>
       <c r="V96" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W96" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z96" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -8080,19 +7504,13 @@
       <c r="AF96">
         <v>0</v>
       </c>
-      <c r="AG96">
-        <v>0</v>
-      </c>
-      <c r="AH96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:34">
+    </row>
+    <row r="97" spans="1:32">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B97" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -8110,16 +7528,16 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J97" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="R97">
         <v>96</v>
       </c>
       <c r="S97" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T97">
         <v>51</v>
@@ -8128,13 +7546,13 @@
         <v>95</v>
       </c>
       <c r="V97" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W97" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z97" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -8148,19 +7566,13 @@
       <c r="AF97">
         <v>0</v>
       </c>
-      <c r="AG97">
-        <v>0</v>
-      </c>
-      <c r="AH97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:34">
+    </row>
+    <row r="98" spans="1:32">
       <c r="A98" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8178,16 +7590,16 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J98" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="R98">
         <v>97</v>
       </c>
       <c r="S98" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T98">
         <v>51</v>
@@ -8196,13 +7608,13 @@
         <v>95</v>
       </c>
       <c r="V98" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W98" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z98" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -8216,19 +7628,13 @@
       <c r="AF98">
         <v>0</v>
       </c>
-      <c r="AG98">
-        <v>0</v>
-      </c>
-      <c r="AH98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:34">
+    </row>
+    <row r="99" spans="1:32">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B99" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8246,16 +7652,16 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="R99">
         <v>98</v>
       </c>
       <c r="S99" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T99">
         <v>51</v>
@@ -8264,13 +7670,13 @@
         <v>95</v>
       </c>
       <c r="V99" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="W99" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z99" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -8284,19 +7690,13 @@
       <c r="AF99">
         <v>0</v>
       </c>
-      <c r="AG99">
-        <v>0</v>
-      </c>
-      <c r="AH99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:34">
+    </row>
+    <row r="100" spans="1:32">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B100" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8314,16 +7714,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J100" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R100">
         <v>99</v>
       </c>
       <c r="S100" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T100">
         <v>54</v>
@@ -8332,13 +7732,13 @@
         <v>99</v>
       </c>
       <c r="V100" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="W100" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z100" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -8352,19 +7752,13 @@
       <c r="AF100">
         <v>0</v>
       </c>
-      <c r="AG100">
-        <v>0</v>
-      </c>
-      <c r="AH100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:34">
+    </row>
+    <row r="101" spans="1:32">
       <c r="A101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8382,16 +7776,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J101" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="R101">
         <v>100</v>
       </c>
       <c r="S101" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T101">
         <v>54</v>
@@ -8400,13 +7794,13 @@
         <v>99</v>
       </c>
       <c r="V101" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="W101" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z101" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -8420,19 +7814,13 @@
       <c r="AF101">
         <v>0</v>
       </c>
-      <c r="AG101">
-        <v>0</v>
-      </c>
-      <c r="AH101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:34">
+    </row>
+    <row r="102" spans="1:32">
       <c r="A102" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8450,16 +7838,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J102" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="R102">
         <v>101</v>
       </c>
       <c r="S102" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T102">
         <v>54</v>
@@ -8468,13 +7856,13 @@
         <v>99</v>
       </c>
       <c r="V102" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="W102" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z102" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -8488,19 +7876,13 @@
       <c r="AF102">
         <v>0</v>
       </c>
-      <c r="AG102">
-        <v>0</v>
-      </c>
-      <c r="AH102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:34">
+    </row>
+    <row r="103" spans="1:32">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B103" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -8518,16 +7900,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J103" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="R103">
         <v>102</v>
       </c>
       <c r="S103" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T103">
         <v>55</v>
@@ -8536,13 +7918,13 @@
         <v>100</v>
       </c>
       <c r="V103" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="W103" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z103" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -8556,19 +7938,13 @@
       <c r="AF103">
         <v>0</v>
       </c>
-      <c r="AG103">
-        <v>0</v>
-      </c>
-      <c r="AH103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:34">
+    </row>
+    <row r="104" spans="1:32">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8586,16 +7962,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J104" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R104">
         <v>103</v>
       </c>
       <c r="S104" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T104">
         <v>56</v>
@@ -8604,13 +7980,13 @@
         <v>101</v>
       </c>
       <c r="V104" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="W104" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z104" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -8624,19 +8000,13 @@
       <c r="AF104">
         <v>0</v>
       </c>
-      <c r="AG104">
-        <v>0</v>
-      </c>
-      <c r="AH104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:34">
+    </row>
+    <row r="105" spans="1:32">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8654,16 +8024,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J105" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="R105">
         <v>104</v>
       </c>
       <c r="S105" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T105">
         <v>57</v>
@@ -8672,13 +8042,13 @@
         <v>102</v>
       </c>
       <c r="V105" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="W105" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z105" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -8692,19 +8062,13 @@
       <c r="AF105">
         <v>0</v>
       </c>
-      <c r="AG105">
-        <v>0</v>
-      </c>
-      <c r="AH105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:34">
+    </row>
+    <row r="106" spans="1:32">
       <c r="A106" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B106" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8722,16 +8086,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J106" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R106">
         <v>105</v>
       </c>
       <c r="S106" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T106">
         <v>57</v>
@@ -8740,13 +8104,13 @@
         <v>102</v>
       </c>
       <c r="V106" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="W106" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z106" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -8760,19 +8124,13 @@
       <c r="AF106">
         <v>0</v>
       </c>
-      <c r="AG106">
-        <v>0</v>
-      </c>
-      <c r="AH106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:34">
+    </row>
+    <row r="107" spans="1:32">
       <c r="A107" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B107" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8790,16 +8148,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J107" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="R107">
         <v>106</v>
       </c>
       <c r="S107" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T107">
         <v>59</v>
@@ -8808,13 +8166,13 @@
         <v>104</v>
       </c>
       <c r="V107" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="W107" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z107" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -8828,19 +8186,13 @@
       <c r="AF107">
         <v>0</v>
       </c>
-      <c r="AG107">
-        <v>0</v>
-      </c>
-      <c r="AH107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:34">
+    </row>
+    <row r="108" spans="1:32">
       <c r="A108" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8858,16 +8210,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J108" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="R108">
         <v>107</v>
       </c>
       <c r="S108" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T108">
         <v>60</v>
@@ -8876,13 +8228,13 @@
         <v>105</v>
       </c>
       <c r="V108" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="W108" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="Z108" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -8896,19 +8248,13 @@
       <c r="AF108">
         <v>0</v>
       </c>
-      <c r="AG108">
-        <v>0</v>
-      </c>
-      <c r="AH108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:34">
+    </row>
+    <row r="109" spans="1:32">
       <c r="A109" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B109" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -8926,16 +8272,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J109" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R109">
         <v>108</v>
       </c>
       <c r="S109" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T109">
         <v>61</v>
@@ -8944,13 +8290,13 @@
         <v>106</v>
       </c>
       <c r="V109" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="W109" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z109" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -8964,19 +8310,13 @@
       <c r="AF109">
         <v>0</v>
       </c>
-      <c r="AG109">
-        <v>0</v>
-      </c>
-      <c r="AH109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:34">
+    </row>
+    <row r="110" spans="1:32">
       <c r="A110" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B110" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -8994,16 +8334,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J110" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="R110">
         <v>109</v>
       </c>
       <c r="S110" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T110">
         <v>64</v>
@@ -9012,13 +8352,13 @@
         <v>111</v>
       </c>
       <c r="V110" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="W110" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Z110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -9032,19 +8372,13 @@
       <c r="AF110">
         <v>0</v>
       </c>
-      <c r="AG110">
-        <v>0</v>
-      </c>
-      <c r="AH110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:34">
+    </row>
+    <row r="111" spans="1:32">
       <c r="A111" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9062,16 +8396,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J111" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="R111">
         <v>110</v>
       </c>
       <c r="S111" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T111">
         <v>65</v>
@@ -9080,13 +8414,13 @@
         <v>113</v>
       </c>
       <c r="V111" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="W111" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Z111" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -9100,19 +8434,13 @@
       <c r="AF111">
         <v>0</v>
       </c>
-      <c r="AG111">
-        <v>0</v>
-      </c>
-      <c r="AH111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:34">
+    </row>
+    <row r="112" spans="1:32">
       <c r="A112" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9130,16 +8458,16 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J112" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="R112">
         <v>111</v>
       </c>
       <c r="S112" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T112">
         <v>67</v>
@@ -9148,13 +8476,13 @@
         <v>115</v>
       </c>
       <c r="V112" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="W112" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z112" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -9168,19 +8496,13 @@
       <c r="AF112">
         <v>0</v>
       </c>
-      <c r="AG112">
-        <v>0</v>
-      </c>
-      <c r="AH112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:34">
+    </row>
+    <row r="113" spans="1:32">
       <c r="A113" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9198,16 +8520,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J113" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="R113">
         <v>112</v>
       </c>
       <c r="S113" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T113">
         <v>70</v>
@@ -9216,13 +8538,13 @@
         <v>119</v>
       </c>
       <c r="V113" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="W113" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z113" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -9236,19 +8558,13 @@
       <c r="AF113">
         <v>0</v>
       </c>
-      <c r="AG113">
-        <v>0</v>
-      </c>
-      <c r="AH113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:34">
+    </row>
+    <row r="114" spans="1:32">
       <c r="A114" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B114" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9266,16 +8582,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J114" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R114">
         <v>113</v>
       </c>
       <c r="S114" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T114">
         <v>70</v>
@@ -9284,13 +8600,13 @@
         <v>119</v>
       </c>
       <c r="V114" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="W114" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z114" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -9304,19 +8620,13 @@
       <c r="AF114">
         <v>0</v>
       </c>
-      <c r="AG114">
-        <v>0</v>
-      </c>
-      <c r="AH114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:34">
+    </row>
+    <row r="115" spans="1:32">
       <c r="A115" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B115" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9334,16 +8644,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J115" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="R115">
         <v>114</v>
       </c>
       <c r="S115" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T115">
         <v>70</v>
@@ -9352,13 +8662,13 @@
         <v>119</v>
       </c>
       <c r="V115" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="W115" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z115" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -9372,19 +8682,13 @@
       <c r="AF115">
         <v>0</v>
       </c>
-      <c r="AG115">
-        <v>0</v>
-      </c>
-      <c r="AH115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:34">
+    </row>
+    <row r="116" spans="1:32">
       <c r="A116" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B116" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9402,16 +8706,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J116" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R116">
         <v>115</v>
       </c>
       <c r="S116" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T116">
         <v>70</v>
@@ -9420,13 +8724,13 @@
         <v>119</v>
       </c>
       <c r="V116" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="W116" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z116" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -9440,19 +8744,13 @@
       <c r="AF116">
         <v>0</v>
       </c>
-      <c r="AG116">
-        <v>0</v>
-      </c>
-      <c r="AH116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:34">
+    </row>
+    <row r="117" spans="1:32">
       <c r="A117" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B117" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9470,16 +8768,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J117" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="R117">
         <v>116</v>
       </c>
       <c r="S117" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T117">
         <v>70</v>
@@ -9488,13 +8786,13 @@
         <v>119</v>
       </c>
       <c r="V117" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="W117" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z117" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -9508,19 +8806,13 @@
       <c r="AF117">
         <v>0</v>
       </c>
-      <c r="AG117">
-        <v>0</v>
-      </c>
-      <c r="AH117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:34">
+    </row>
+    <row r="118" spans="1:32">
       <c r="A118" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B118" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9538,16 +8830,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J118" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="R118">
         <v>117</v>
       </c>
       <c r="S118" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T118">
         <v>70</v>
@@ -9556,13 +8848,13 @@
         <v>119</v>
       </c>
       <c r="V118" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="W118" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z118" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -9576,19 +8868,13 @@
       <c r="AF118">
         <v>0</v>
       </c>
-      <c r="AG118">
-        <v>0</v>
-      </c>
-      <c r="AH118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:34">
+    </row>
+    <row r="119" spans="1:32">
       <c r="A119" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9606,16 +8892,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J119" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="R119">
         <v>118</v>
       </c>
       <c r="S119" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T119">
         <v>70</v>
@@ -9624,13 +8910,13 @@
         <v>119</v>
       </c>
       <c r="V119" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="W119" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z119" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -9644,19 +8930,13 @@
       <c r="AF119">
         <v>0</v>
       </c>
-      <c r="AG119">
-        <v>0</v>
-      </c>
-      <c r="AH119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:34">
+    </row>
+    <row r="120" spans="1:32">
       <c r="A120" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B120" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9674,16 +8954,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J120" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="R120">
         <v>119</v>
       </c>
       <c r="S120" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T120">
         <v>70</v>
@@ -9692,13 +8972,13 @@
         <v>119</v>
       </c>
       <c r="V120" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="W120" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z120" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -9712,19 +8992,13 @@
       <c r="AF120">
         <v>0</v>
       </c>
-      <c r="AG120">
-        <v>0</v>
-      </c>
-      <c r="AH120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:34">
+    </row>
+    <row r="121" spans="1:32">
       <c r="A121" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B121" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9742,16 +9016,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J121" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="R121">
         <v>120</v>
       </c>
       <c r="S121" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="T121">
         <v>70</v>
@@ -9760,13 +9034,13 @@
         <v>119</v>
       </c>
       <c r="V121" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="W121" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z121" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -9778,12 +9052,6 @@
         <v>0</v>
       </c>
       <c r="AF121">
-        <v>0</v>
-      </c>
-      <c r="AG121">
-        <v>0</v>
-      </c>
-      <c r="AH121">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p19.xlsx
+++ b/files/separadas/repeat_p19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="355">
   <si>
     <t>p19_nom</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>c3</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1466,13 +1469,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF121"/>
+  <dimension ref="A1:AG121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1569,13 +1572,16 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1593,16 +1599,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -1611,13 +1617,13 @@
         <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="Z2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1631,13 +1637,16 @@
       <c r="AF2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1655,19 +1664,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T3">
         <v>4</v>
@@ -1676,13 +1685,13 @@
         <v>9</v>
       </c>
       <c r="V3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="W3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="Z3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1696,13 +1705,16 @@
       <c r="AF3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1720,16 +1732,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T4">
         <v>6</v>
@@ -1738,13 +1750,13 @@
         <v>12</v>
       </c>
       <c r="V4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W4" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1758,13 +1770,16 @@
       <c r="AF4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1782,16 +1797,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R5">
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T5">
         <v>6</v>
@@ -1800,13 +1815,13 @@
         <v>12</v>
       </c>
       <c r="V5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W5" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1820,13 +1835,16 @@
       <c r="AF5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1844,16 +1862,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T6">
         <v>6</v>
@@ -1862,13 +1880,13 @@
         <v>12</v>
       </c>
       <c r="V6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W6" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1882,13 +1900,16 @@
       <c r="AF6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1906,16 +1927,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T7">
         <v>6</v>
@@ -1924,13 +1945,13 @@
         <v>12</v>
       </c>
       <c r="V7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W7" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="Z7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1944,13 +1965,16 @@
       <c r="AF7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1968,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R8">
         <v>7</v>
       </c>
       <c r="S8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T8">
         <v>7</v>
@@ -1986,13 +2010,13 @@
         <v>13</v>
       </c>
       <c r="V8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W8" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="Z8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2006,13 +2030,16 @@
       <c r="AF8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2030,16 +2057,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T9">
         <v>8</v>
@@ -2048,13 +2075,13 @@
         <v>14</v>
       </c>
       <c r="V9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W9" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="Z9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2068,13 +2095,16 @@
       <c r="AF9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AG9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2092,16 +2122,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R10">
         <v>9</v>
       </c>
       <c r="S10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T10">
         <v>9</v>
@@ -2110,13 +2140,13 @@
         <v>15</v>
       </c>
       <c r="V10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W10" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2130,13 +2160,16 @@
       <c r="AF10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AG10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2154,16 +2187,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R11">
         <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T11">
         <v>9</v>
@@ -2172,13 +2205,13 @@
         <v>15</v>
       </c>
       <c r="V11" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W11" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2192,13 +2225,16 @@
       <c r="AF11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AG11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2216,16 +2252,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R12">
         <v>11</v>
       </c>
       <c r="S12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T12">
         <v>9</v>
@@ -2234,13 +2270,13 @@
         <v>15</v>
       </c>
       <c r="V12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2254,13 +2290,16 @@
       <c r="AF12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AG12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2278,16 +2317,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R13">
         <v>12</v>
       </c>
       <c r="S13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T13">
         <v>9</v>
@@ -2296,13 +2335,13 @@
         <v>15</v>
       </c>
       <c r="V13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W13" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="Z13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2316,13 +2355,16 @@
       <c r="AF13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2340,16 +2382,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R14">
         <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T14">
         <v>10</v>
@@ -2358,13 +2400,13 @@
         <v>16</v>
       </c>
       <c r="V14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W14" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2378,13 +2420,16 @@
       <c r="AF14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AG14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2402,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R15">
         <v>14</v>
       </c>
       <c r="S15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T15">
         <v>10</v>
@@ -2423,13 +2468,13 @@
         <v>16</v>
       </c>
       <c r="V15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W15" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="Z15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2443,13 +2488,16 @@
       <c r="AF15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2467,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R16">
         <v>15</v>
       </c>
       <c r="S16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T16">
         <v>11</v>
@@ -2485,13 +2533,13 @@
         <v>17</v>
       </c>
       <c r="V16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2505,13 +2553,16 @@
       <c r="AF16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AG16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2529,16 +2580,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R17">
         <v>16</v>
       </c>
       <c r="S17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T17">
         <v>11</v>
@@ -2547,13 +2598,13 @@
         <v>17</v>
       </c>
       <c r="V17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2567,13 +2618,16 @@
       <c r="AF17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AG17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2591,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R18">
         <v>17</v>
       </c>
       <c r="S18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T18">
         <v>11</v>
@@ -2609,13 +2663,13 @@
         <v>17</v>
       </c>
       <c r="V18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z18" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2629,13 +2683,16 @@
       <c r="AF18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AG18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2653,16 +2710,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R19">
         <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T19">
         <v>11</v>
@@ -2671,13 +2728,13 @@
         <v>17</v>
       </c>
       <c r="V19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2691,13 +2748,16 @@
       <c r="AF19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AG19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2715,16 +2775,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R20">
         <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T20">
         <v>11</v>
@@ -2733,13 +2793,13 @@
         <v>17</v>
       </c>
       <c r="V20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2753,13 +2813,16 @@
       <c r="AF20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AG20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2777,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R21">
         <v>20</v>
       </c>
       <c r="S21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T21">
         <v>11</v>
@@ -2795,13 +2858,13 @@
         <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W21" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z21" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -2815,13 +2878,16 @@
       <c r="AF21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AG21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2839,16 +2905,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R22">
         <v>21</v>
       </c>
       <c r="S22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T22">
         <v>11</v>
@@ -2857,13 +2923,13 @@
         <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W22" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="Z22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -2877,13 +2943,16 @@
       <c r="AF22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AG22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2901,16 +2970,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R23">
         <v>22</v>
       </c>
       <c r="S23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T23">
         <v>12</v>
@@ -2919,13 +2988,13 @@
         <v>18</v>
       </c>
       <c r="V23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W23" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="Z23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -2939,13 +3008,16 @@
       <c r="AF23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AG23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2963,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R24">
         <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T24">
         <v>13</v>
@@ -2981,13 +3053,13 @@
         <v>20</v>
       </c>
       <c r="V24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W24" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="Z24" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3001,13 +3073,16 @@
       <c r="AF24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AG24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3025,16 +3100,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R25">
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T25">
         <v>14</v>
@@ -3043,13 +3118,13 @@
         <v>21</v>
       </c>
       <c r="V25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W25" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="Z25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3063,13 +3138,16 @@
       <c r="AF25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AG25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3087,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R26">
         <v>25</v>
       </c>
       <c r="S26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T26">
         <v>15</v>
@@ -3105,13 +3183,13 @@
         <v>22</v>
       </c>
       <c r="V26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W26" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3125,13 +3203,16 @@
       <c r="AF26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AG26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3149,19 +3230,19 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R27">
         <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T27">
         <v>15</v>
@@ -3170,13 +3251,13 @@
         <v>22</v>
       </c>
       <c r="V27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W27" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="Z27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3190,13 +3271,16 @@
       <c r="AF27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AG27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3214,16 +3298,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R28">
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T28">
         <v>16</v>
@@ -3232,13 +3316,13 @@
         <v>25</v>
       </c>
       <c r="V28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W28" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="Z28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3252,13 +3336,16 @@
       <c r="AF28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AG28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3276,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R29">
         <v>28</v>
       </c>
       <c r="S29" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T29">
         <v>17</v>
@@ -3294,13 +3381,13 @@
         <v>26</v>
       </c>
       <c r="V29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W29" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="Z29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3314,13 +3401,16 @@
       <c r="AF29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AG29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3338,16 +3428,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R30">
         <v>29</v>
       </c>
       <c r="S30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T30">
         <v>18</v>
@@ -3356,13 +3446,13 @@
         <v>27</v>
       </c>
       <c r="V30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W30" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="Z30" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -3376,13 +3466,16 @@
       <c r="AF30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AG30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3400,19 +3493,19 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R31">
         <v>30</v>
       </c>
       <c r="S31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T31">
         <v>19</v>
@@ -3421,13 +3514,13 @@
         <v>30</v>
       </c>
       <c r="V31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W31" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -3441,13 +3534,16 @@
       <c r="AF31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AG31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3465,19 +3561,19 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R32">
         <v>31</v>
       </c>
       <c r="S32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T32">
         <v>19</v>
@@ -3486,13 +3582,13 @@
         <v>30</v>
       </c>
       <c r="V32" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W32" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z32" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -3506,13 +3602,16 @@
       <c r="AF32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AG32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3530,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R33">
         <v>32</v>
       </c>
       <c r="S33" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T33">
         <v>19</v>
@@ -3548,13 +3647,13 @@
         <v>30</v>
       </c>
       <c r="V33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W33" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z33" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -3568,13 +3667,16 @@
       <c r="AF33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AG33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3592,19 +3694,19 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R34">
         <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T34">
         <v>19</v>
@@ -3613,13 +3715,13 @@
         <v>30</v>
       </c>
       <c r="V34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W34" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -3633,13 +3735,16 @@
       <c r="AF34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AG34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3657,19 +3762,19 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R35">
         <v>34</v>
       </c>
       <c r="S35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T35">
         <v>19</v>
@@ -3678,13 +3783,13 @@
         <v>30</v>
       </c>
       <c r="V35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W35" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="Z35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -3698,13 +3803,16 @@
       <c r="AF35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AG35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -3722,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R36">
         <v>35</v>
       </c>
       <c r="S36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T36">
         <v>21</v>
@@ -3740,13 +3848,13 @@
         <v>34</v>
       </c>
       <c r="V36" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="W36" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="Z36" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -3760,13 +3868,16 @@
       <c r="AF36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AG36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3784,16 +3895,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R37">
         <v>36</v>
       </c>
       <c r="S37" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T37">
         <v>22</v>
@@ -3802,13 +3913,13 @@
         <v>37</v>
       </c>
       <c r="V37" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z37" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -3822,13 +3933,16 @@
       <c r="AF37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AG37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3846,16 +3960,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R38">
         <v>37</v>
       </c>
       <c r="S38" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T38">
         <v>22</v>
@@ -3864,13 +3978,13 @@
         <v>37</v>
       </c>
       <c r="V38" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z38" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -3884,13 +3998,16 @@
       <c r="AF38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AG38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3908,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R39">
         <v>38</v>
       </c>
       <c r="S39" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T39">
         <v>22</v>
@@ -3926,13 +4043,13 @@
         <v>37</v>
       </c>
       <c r="V39" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W39" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z39" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -3946,13 +4063,16 @@
       <c r="AF39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="AG39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3970,16 +4090,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R40">
         <v>39</v>
       </c>
       <c r="S40" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T40">
         <v>22</v>
@@ -3988,13 +4108,13 @@
         <v>37</v>
       </c>
       <c r="V40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W40" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z40" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -4008,13 +4128,16 @@
       <c r="AF40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:32">
+      <c r="AG40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -4032,16 +4155,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R41">
         <v>40</v>
       </c>
       <c r="S41" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T41">
         <v>22</v>
@@ -4050,13 +4173,13 @@
         <v>37</v>
       </c>
       <c r="V41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W41" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z41" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -4070,13 +4193,16 @@
       <c r="AF41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="AG41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4094,16 +4220,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R42">
         <v>41</v>
       </c>
       <c r="S42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T42">
         <v>22</v>
@@ -4112,13 +4238,13 @@
         <v>37</v>
       </c>
       <c r="V42" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W42" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z42" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC42">
         <v>0</v>
@@ -4132,13 +4258,16 @@
       <c r="AF42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:32">
+      <c r="AG42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4156,16 +4285,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R43">
         <v>42</v>
       </c>
       <c r="S43" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T43">
         <v>22</v>
@@ -4174,13 +4303,13 @@
         <v>37</v>
       </c>
       <c r="V43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W43" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z43" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -4194,13 +4323,16 @@
       <c r="AF43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AG43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4218,16 +4350,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R44">
         <v>43</v>
       </c>
       <c r="S44" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T44">
         <v>22</v>
@@ -4236,13 +4368,13 @@
         <v>37</v>
       </c>
       <c r="V44" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W44" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="Z44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC44">
         <v>0</v>
@@ -4256,13 +4388,16 @@
       <c r="AF44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:32">
+      <c r="AG44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4280,16 +4415,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R45">
         <v>44</v>
       </c>
       <c r="S45" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T45">
         <v>23</v>
@@ -4298,13 +4433,13 @@
         <v>38</v>
       </c>
       <c r="V45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="W45" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z45" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -4318,13 +4453,16 @@
       <c r="AF45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AG45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4342,16 +4480,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R46">
         <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T46">
         <v>23</v>
@@ -4360,13 +4498,13 @@
         <v>38</v>
       </c>
       <c r="V46" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="W46" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z46" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC46">
         <v>0</v>
@@ -4380,13 +4518,16 @@
       <c r="AF46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AG46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4404,16 +4545,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R47">
         <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T47">
         <v>23</v>
@@ -4422,13 +4563,13 @@
         <v>38</v>
       </c>
       <c r="V47" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="W47" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z47" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC47">
         <v>0</v>
@@ -4442,13 +4583,16 @@
       <c r="AF47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:32">
+      <c r="AG47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4466,16 +4610,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R48">
         <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T48">
         <v>23</v>
@@ -4484,13 +4628,13 @@
         <v>38</v>
       </c>
       <c r="V48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="W48" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="Z48" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC48">
         <v>0</v>
@@ -4504,13 +4648,16 @@
       <c r="AF48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="AG48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4528,16 +4675,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R49">
         <v>48</v>
       </c>
       <c r="S49" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T49">
         <v>24</v>
@@ -4546,13 +4693,13 @@
         <v>51</v>
       </c>
       <c r="V49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W49" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z49" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC49">
         <v>0</v>
@@ -4566,13 +4713,16 @@
       <c r="AF49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:32">
+      <c r="AG49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4590,19 +4740,19 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R50">
         <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T50">
         <v>24</v>
@@ -4611,13 +4761,13 @@
         <v>51</v>
       </c>
       <c r="V50" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W50" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z50" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -4631,13 +4781,16 @@
       <c r="AF50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:32">
+      <c r="AG50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4655,19 +4808,19 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R51">
         <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T51">
         <v>24</v>
@@ -4676,13 +4829,13 @@
         <v>51</v>
       </c>
       <c r="V51" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W51" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="Z51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC51">
         <v>0</v>
@@ -4696,13 +4849,16 @@
       <c r="AF51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:32">
+      <c r="AG51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4720,19 +4876,19 @@
         <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R52">
         <v>51</v>
       </c>
       <c r="S52" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T52">
         <v>27</v>
@@ -4741,13 +4897,13 @@
         <v>56</v>
       </c>
       <c r="V52" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="W52" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z52" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC52">
         <v>0</v>
@@ -4761,13 +4917,16 @@
       <c r="AF52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:32">
+      <c r="AG52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4785,19 +4944,19 @@
         <v>0</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R53">
         <v>52</v>
       </c>
       <c r="S53" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T53">
         <v>27</v>
@@ -4806,13 +4965,13 @@
         <v>56</v>
       </c>
       <c r="V53" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="W53" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC53">
         <v>0</v>
@@ -4826,13 +4985,16 @@
       <c r="AF53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:32">
+      <c r="AG53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4850,16 +5012,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R54">
         <v>53</v>
       </c>
       <c r="S54" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T54">
         <v>27</v>
@@ -4868,13 +5030,13 @@
         <v>56</v>
       </c>
       <c r="V54" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="W54" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="Z54" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC54">
         <v>0</v>
@@ -4888,13 +5050,16 @@
       <c r="AF54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:32">
+      <c r="AG54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4912,16 +5077,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R55">
         <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T55">
         <v>28</v>
@@ -4930,13 +5095,13 @@
         <v>57</v>
       </c>
       <c r="V55" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="W55" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="Z55" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC55">
         <v>0</v>
@@ -4950,13 +5115,16 @@
       <c r="AF55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:32">
+      <c r="AG55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4974,16 +5142,16 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R56">
         <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T56">
         <v>29</v>
@@ -4992,13 +5160,13 @@
         <v>58</v>
       </c>
       <c r="V56" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="W56" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z56" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC56">
         <v>0</v>
@@ -5012,13 +5180,16 @@
       <c r="AF56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="AG56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5036,16 +5207,16 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R57">
         <v>56</v>
       </c>
       <c r="S57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T57">
         <v>29</v>
@@ -5054,13 +5225,13 @@
         <v>58</v>
       </c>
       <c r="V57" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="W57" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="Z57" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC57">
         <v>0</v>
@@ -5074,13 +5245,16 @@
       <c r="AF57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:32">
+      <c r="AG57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5098,16 +5272,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R58">
         <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T58">
         <v>30</v>
@@ -5116,13 +5290,13 @@
         <v>59</v>
       </c>
       <c r="V58" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="W58" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -5136,13 +5310,16 @@
       <c r="AF58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="AG58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5160,16 +5337,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="R59">
         <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T59">
         <v>30</v>
@@ -5178,13 +5355,13 @@
         <v>59</v>
       </c>
       <c r="V59" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="W59" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z59" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC59">
         <v>0</v>
@@ -5198,13 +5375,16 @@
       <c r="AF59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:32">
+      <c r="AG59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5222,16 +5402,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R60">
         <v>59</v>
       </c>
       <c r="S60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T60">
         <v>30</v>
@@ -5240,13 +5420,13 @@
         <v>59</v>
       </c>
       <c r="V60" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="W60" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z60" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC60">
         <v>0</v>
@@ -5260,13 +5440,16 @@
       <c r="AF60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:32">
+      <c r="AG60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5284,16 +5467,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R61">
         <v>60</v>
       </c>
       <c r="S61" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T61">
         <v>30</v>
@@ -5302,13 +5485,13 @@
         <v>59</v>
       </c>
       <c r="V61" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="W61" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="Z61" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC61">
         <v>0</v>
@@ -5322,13 +5505,16 @@
       <c r="AF61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:32">
+      <c r="AG61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -5346,16 +5532,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J62" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R62">
         <v>61</v>
       </c>
       <c r="S62" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T62">
         <v>31</v>
@@ -5364,13 +5550,13 @@
         <v>60</v>
       </c>
       <c r="V62" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="W62" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="Z62" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC62">
         <v>0</v>
@@ -5384,13 +5570,16 @@
       <c r="AF62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:32">
+      <c r="AG62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5408,16 +5597,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R63">
         <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T63">
         <v>32</v>
@@ -5426,13 +5615,13 @@
         <v>61</v>
       </c>
       <c r="V63" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W63" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z63" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -5446,13 +5635,16 @@
       <c r="AF63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:32">
+      <c r="AG63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5470,16 +5662,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R64">
         <v>63</v>
       </c>
       <c r="S64" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T64">
         <v>32</v>
@@ -5488,13 +5680,13 @@
         <v>61</v>
       </c>
       <c r="V64" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W64" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="Z64" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC64">
         <v>0</v>
@@ -5508,13 +5700,16 @@
       <c r="AF64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:32">
+      <c r="AG64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5532,16 +5727,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R65">
         <v>64</v>
       </c>
       <c r="S65" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T65">
         <v>33</v>
@@ -5550,13 +5745,13 @@
         <v>63</v>
       </c>
       <c r="V65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W65" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z65" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -5570,13 +5765,16 @@
       <c r="AF65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:32">
+      <c r="AG65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5594,16 +5792,16 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R66">
         <v>65</v>
       </c>
       <c r="S66" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T66">
         <v>33</v>
@@ -5612,13 +5810,13 @@
         <v>63</v>
       </c>
       <c r="V66" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W66" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z66" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -5632,13 +5830,16 @@
       <c r="AF66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:32">
+      <c r="AG66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -5656,16 +5857,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="R67">
         <v>66</v>
       </c>
       <c r="S67" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T67">
         <v>33</v>
@@ -5674,13 +5875,13 @@
         <v>63</v>
       </c>
       <c r="V67" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W67" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z67" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -5694,13 +5895,16 @@
       <c r="AF67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:32">
+      <c r="AG67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -5718,16 +5922,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R68">
         <v>67</v>
       </c>
       <c r="S68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T68">
         <v>33</v>
@@ -5736,13 +5940,13 @@
         <v>63</v>
       </c>
       <c r="V68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W68" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z68" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -5756,13 +5960,16 @@
       <c r="AF68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:32">
+      <c r="AG68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -5780,16 +5987,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J69" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R69">
         <v>68</v>
       </c>
       <c r="S69" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T69">
         <v>33</v>
@@ -5798,13 +6005,13 @@
         <v>63</v>
       </c>
       <c r="V69" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W69" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z69" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC69">
         <v>0</v>
@@ -5818,13 +6025,16 @@
       <c r="AF69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:32">
+      <c r="AG69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5842,16 +6052,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J70" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R70">
         <v>69</v>
       </c>
       <c r="S70" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T70">
         <v>33</v>
@@ -5860,13 +6070,13 @@
         <v>63</v>
       </c>
       <c r="V70" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W70" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z70" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC70">
         <v>0</v>
@@ -5880,13 +6090,16 @@
       <c r="AF70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:32">
+      <c r="AG70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -5904,16 +6117,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J71" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R71">
         <v>70</v>
       </c>
       <c r="S71" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T71">
         <v>33</v>
@@ -5922,13 +6135,13 @@
         <v>63</v>
       </c>
       <c r="V71" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W71" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z71" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC71">
         <v>0</v>
@@ -5942,13 +6155,16 @@
       <c r="AF71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:32">
+      <c r="AG71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -5966,16 +6182,16 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J72" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R72">
         <v>71</v>
       </c>
       <c r="S72" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T72">
         <v>33</v>
@@ -5984,13 +6200,13 @@
         <v>63</v>
       </c>
       <c r="V72" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W72" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="Z72" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -6004,13 +6220,16 @@
       <c r="AF72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:32">
+      <c r="AG72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6028,16 +6247,16 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J73" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R73">
         <v>72</v>
       </c>
       <c r="S73" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T73">
         <v>34</v>
@@ -6046,13 +6265,13 @@
         <v>64</v>
       </c>
       <c r="V73" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="W73" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z73" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC73">
         <v>0</v>
@@ -6066,13 +6285,16 @@
       <c r="AF73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:32">
+      <c r="AG73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -6090,16 +6312,16 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R74">
         <v>73</v>
       </c>
       <c r="S74" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T74">
         <v>34</v>
@@ -6108,13 +6330,13 @@
         <v>64</v>
       </c>
       <c r="V74" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="W74" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="Z74" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -6128,13 +6350,16 @@
       <c r="AF74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:32">
+      <c r="AG74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6152,16 +6377,16 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J75" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R75">
         <v>74</v>
       </c>
       <c r="S75" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T75">
         <v>36</v>
@@ -6170,13 +6395,13 @@
         <v>77</v>
       </c>
       <c r="V75" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W75" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="Z75" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -6190,13 +6415,16 @@
       <c r="AF75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:32">
+      <c r="AG75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -6214,16 +6442,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J76" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R76">
         <v>75</v>
       </c>
       <c r="S76" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T76">
         <v>37</v>
@@ -6232,13 +6460,13 @@
         <v>78</v>
       </c>
       <c r="V76" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="W76" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z76" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -6252,13 +6480,16 @@
       <c r="AF76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:32">
+      <c r="AG76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6276,16 +6507,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J77" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R77">
         <v>76</v>
       </c>
       <c r="S77" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T77">
         <v>37</v>
@@ -6294,13 +6525,13 @@
         <v>78</v>
       </c>
       <c r="V77" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="W77" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z77" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -6314,13 +6545,16 @@
       <c r="AF77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:32">
+      <c r="AG77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -6338,16 +6572,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J78" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R78">
         <v>77</v>
       </c>
       <c r="S78" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T78">
         <v>37</v>
@@ -6356,13 +6590,13 @@
         <v>78</v>
       </c>
       <c r="V78" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="W78" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z78" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -6376,13 +6610,16 @@
       <c r="AF78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:32">
+      <c r="AG78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -6400,16 +6637,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R79">
         <v>78</v>
       </c>
       <c r="S79" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T79">
         <v>37</v>
@@ -6418,13 +6655,13 @@
         <v>78</v>
       </c>
       <c r="V79" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="W79" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="Z79" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -6438,13 +6675,16 @@
       <c r="AF79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:32">
+      <c r="AG79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -6462,16 +6702,16 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J80" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="R80">
         <v>79</v>
       </c>
       <c r="S80" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T80">
         <v>39</v>
@@ -6480,13 +6720,13 @@
         <v>81</v>
       </c>
       <c r="V80" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="W80" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="Z80" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -6500,13 +6740,16 @@
       <c r="AF80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:32">
+      <c r="AG80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -6524,16 +6767,16 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J81" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R81">
         <v>80</v>
       </c>
       <c r="S81" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T81">
         <v>40</v>
@@ -6542,13 +6785,13 @@
         <v>82</v>
       </c>
       <c r="V81" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="W81" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="Z81" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -6562,13 +6805,16 @@
       <c r="AF81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:32">
+      <c r="AG81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -6586,16 +6832,16 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J82" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R82">
         <v>81</v>
       </c>
       <c r="S82" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T82">
         <v>42</v>
@@ -6604,13 +6850,13 @@
         <v>84</v>
       </c>
       <c r="V82" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="W82" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="Z82" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -6624,13 +6870,16 @@
       <c r="AF82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:32">
+      <c r="AG82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -6648,16 +6897,16 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J83" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="R83">
         <v>82</v>
       </c>
       <c r="S83" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T83">
         <v>44</v>
@@ -6666,13 +6915,13 @@
         <v>87</v>
       </c>
       <c r="V83" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W83" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z83" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -6686,13 +6935,16 @@
       <c r="AF83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:32">
+      <c r="AG83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -6710,16 +6962,16 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J84" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R84">
         <v>83</v>
       </c>
       <c r="S84" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T84">
         <v>44</v>
@@ -6728,13 +6980,13 @@
         <v>87</v>
       </c>
       <c r="V84" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W84" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z84" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -6748,13 +7000,16 @@
       <c r="AF84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:32">
+      <c r="AG84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -6772,16 +7027,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J85" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R85">
         <v>84</v>
       </c>
       <c r="S85" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T85">
         <v>44</v>
@@ -6790,13 +7045,13 @@
         <v>87</v>
       </c>
       <c r="V85" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W85" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="Z85" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -6810,13 +7065,16 @@
       <c r="AF85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:32">
+      <c r="AG85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -6834,19 +7092,19 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I86" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J86" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R86">
         <v>85</v>
       </c>
       <c r="S86" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T86">
         <v>45</v>
@@ -6855,13 +7113,13 @@
         <v>88</v>
       </c>
       <c r="V86" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="W86" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z86" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -6875,13 +7133,16 @@
       <c r="AF86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:32">
+      <c r="AG86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33">
       <c r="A87" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -6899,19 +7160,19 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I87" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J87" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R87">
         <v>86</v>
       </c>
       <c r="S87" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T87">
         <v>45</v>
@@ -6920,13 +7181,13 @@
         <v>88</v>
       </c>
       <c r="V87" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="W87" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="Z87" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -6940,13 +7201,16 @@
       <c r="AF87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:32">
+      <c r="AG87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -6964,16 +7228,16 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J88" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R88">
         <v>87</v>
       </c>
       <c r="S88" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T88">
         <v>46</v>
@@ -6982,13 +7246,13 @@
         <v>90</v>
       </c>
       <c r="V88" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="W88" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z88" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -7002,13 +7266,16 @@
       <c r="AF88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:32">
+      <c r="AG88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7026,16 +7293,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R89">
         <v>88</v>
       </c>
       <c r="S89" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T89">
         <v>46</v>
@@ -7044,13 +7311,13 @@
         <v>90</v>
       </c>
       <c r="V89" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="W89" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="Z89" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -7064,13 +7331,16 @@
       <c r="AF89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:32">
+      <c r="AG89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7088,16 +7358,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R90">
         <v>89</v>
       </c>
       <c r="S90" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T90">
         <v>47</v>
@@ -7106,13 +7376,13 @@
         <v>91</v>
       </c>
       <c r="V90" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="W90" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z90" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -7126,13 +7396,16 @@
       <c r="AF90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:32">
+      <c r="AG90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7150,16 +7423,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J91" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R91">
         <v>90</v>
       </c>
       <c r="S91" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T91">
         <v>47</v>
@@ -7168,13 +7441,13 @@
         <v>91</v>
       </c>
       <c r="V91" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="W91" s="2">
         <v>45043.91625</v>
       </c>
       <c r="Z91" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -7188,13 +7461,16 @@
       <c r="AF91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:32">
+      <c r="AG91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33">
       <c r="A92" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -7212,19 +7488,19 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I92" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J92" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="R92">
         <v>91</v>
       </c>
       <c r="S92" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T92">
         <v>49</v>
@@ -7233,13 +7509,13 @@
         <v>93</v>
       </c>
       <c r="V92" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="W92" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z92" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -7253,13 +7529,16 @@
       <c r="AF92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:32">
+      <c r="AG92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -7277,19 +7556,19 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I93" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J93" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R93">
         <v>92</v>
       </c>
       <c r="S93" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T93">
         <v>49</v>
@@ -7298,13 +7577,13 @@
         <v>93</v>
       </c>
       <c r="V93" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="W93" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="Z93" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -7318,13 +7597,16 @@
       <c r="AF93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:32">
+      <c r="AG93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33">
       <c r="A94" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B94" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7342,16 +7624,16 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="R94">
         <v>93</v>
       </c>
       <c r="S94" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T94">
         <v>50</v>
@@ -7360,13 +7642,13 @@
         <v>94</v>
       </c>
       <c r="V94" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="W94" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="Z94" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -7380,13 +7662,16 @@
       <c r="AF94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:32">
+      <c r="AG94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33">
       <c r="A95" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B95" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7404,16 +7689,16 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J95" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="R95">
         <v>94</v>
       </c>
       <c r="S95" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T95">
         <v>51</v>
@@ -7422,13 +7707,13 @@
         <v>95</v>
       </c>
       <c r="V95" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W95" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z95" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -7442,13 +7727,16 @@
       <c r="AF95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:32">
+      <c r="AG95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33">
       <c r="A96" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7466,16 +7754,16 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J96" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R96">
         <v>95</v>
       </c>
       <c r="S96" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T96">
         <v>51</v>
@@ -7484,13 +7772,13 @@
         <v>95</v>
       </c>
       <c r="V96" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W96" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z96" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -7504,13 +7792,16 @@
       <c r="AF96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:32">
+      <c r="AG96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B97" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -7528,16 +7819,16 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R97">
         <v>96</v>
       </c>
       <c r="S97" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T97">
         <v>51</v>
@@ -7546,13 +7837,13 @@
         <v>95</v>
       </c>
       <c r="V97" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W97" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z97" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -7566,13 +7857,16 @@
       <c r="AF97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:32">
+      <c r="AG97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33">
       <c r="A98" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7590,16 +7884,16 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J98" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="R98">
         <v>97</v>
       </c>
       <c r="S98" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T98">
         <v>51</v>
@@ -7608,13 +7902,13 @@
         <v>95</v>
       </c>
       <c r="V98" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W98" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z98" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -7628,13 +7922,16 @@
       <c r="AF98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:32">
+      <c r="AG98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B99" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7652,16 +7949,16 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J99" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R99">
         <v>98</v>
       </c>
       <c r="S99" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T99">
         <v>51</v>
@@ -7670,13 +7967,13 @@
         <v>95</v>
       </c>
       <c r="V99" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="W99" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="Z99" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -7690,13 +7987,16 @@
       <c r="AF99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:32">
+      <c r="AG99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33">
       <c r="A100" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B100" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7714,16 +8014,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J100" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R100">
         <v>99</v>
       </c>
       <c r="S100" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T100">
         <v>54</v>
@@ -7732,13 +8032,13 @@
         <v>99</v>
       </c>
       <c r="V100" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="W100" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z100" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -7752,13 +8052,16 @@
       <c r="AF100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:32">
+      <c r="AG100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33">
       <c r="A101" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7776,16 +8079,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J101" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="R101">
         <v>100</v>
       </c>
       <c r="S101" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T101">
         <v>54</v>
@@ -7794,13 +8097,13 @@
         <v>99</v>
       </c>
       <c r="V101" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="W101" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z101" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -7814,13 +8117,16 @@
       <c r="AF101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:32">
+      <c r="AG101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B102" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -7838,16 +8144,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J102" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R102">
         <v>101</v>
       </c>
       <c r="S102" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T102">
         <v>54</v>
@@ -7856,13 +8162,13 @@
         <v>99</v>
       </c>
       <c r="V102" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="W102" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="Z102" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -7876,13 +8182,16 @@
       <c r="AF102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:32">
+      <c r="AG102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B103" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -7900,16 +8209,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J103" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R103">
         <v>102</v>
       </c>
       <c r="S103" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T103">
         <v>55</v>
@@ -7918,13 +8227,13 @@
         <v>100</v>
       </c>
       <c r="V103" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="W103" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="Z103" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -7938,13 +8247,16 @@
       <c r="AF103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:32">
+      <c r="AG103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33">
       <c r="A104" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B104" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -7962,16 +8274,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J104" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R104">
         <v>103</v>
       </c>
       <c r="S104" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T104">
         <v>56</v>
@@ -7980,13 +8292,13 @@
         <v>101</v>
       </c>
       <c r="V104" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="W104" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="Z104" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -8000,13 +8312,16 @@
       <c r="AF104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:32">
+      <c r="AG104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B105" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8024,16 +8339,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J105" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R105">
         <v>104</v>
       </c>
       <c r="S105" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T105">
         <v>57</v>
@@ -8042,13 +8357,13 @@
         <v>102</v>
       </c>
       <c r="V105" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W105" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z105" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -8062,13 +8377,16 @@
       <c r="AF105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:32">
+      <c r="AG105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33">
       <c r="A106" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B106" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8086,16 +8404,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J106" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R106">
         <v>105</v>
       </c>
       <c r="S106" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T106">
         <v>57</v>
@@ -8104,13 +8422,13 @@
         <v>102</v>
       </c>
       <c r="V106" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W106" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="Z106" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -8124,13 +8442,16 @@
       <c r="AF106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:32">
+      <c r="AG106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33">
       <c r="A107" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B107" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8148,16 +8469,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J107" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R107">
         <v>106</v>
       </c>
       <c r="S107" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T107">
         <v>59</v>
@@ -8166,13 +8487,13 @@
         <v>104</v>
       </c>
       <c r="V107" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W107" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="Z107" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -8186,13 +8507,16 @@
       <c r="AF107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:32">
+      <c r="AG107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33">
       <c r="A108" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B108" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8210,16 +8534,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J108" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R108">
         <v>107</v>
       </c>
       <c r="S108" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T108">
         <v>60</v>
@@ -8228,13 +8552,13 @@
         <v>105</v>
       </c>
       <c r="V108" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W108" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="Z108" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -8248,13 +8572,16 @@
       <c r="AF108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:32">
+      <c r="AG108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33">
       <c r="A109" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B109" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -8272,16 +8599,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J109" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R109">
         <v>108</v>
       </c>
       <c r="S109" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T109">
         <v>61</v>
@@ -8290,13 +8617,13 @@
         <v>106</v>
       </c>
       <c r="V109" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W109" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="Z109" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -8310,13 +8637,16 @@
       <c r="AF109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:32">
+      <c r="AG109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33">
       <c r="A110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B110" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -8334,16 +8664,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J110" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R110">
         <v>109</v>
       </c>
       <c r="S110" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T110">
         <v>64</v>
@@ -8352,13 +8682,13 @@
         <v>111</v>
       </c>
       <c r="V110" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="W110" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="Z110" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -8372,13 +8702,16 @@
       <c r="AF110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:32">
+      <c r="AG110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33">
       <c r="A111" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B111" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8396,16 +8729,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J111" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R111">
         <v>110</v>
       </c>
       <c r="S111" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T111">
         <v>65</v>
@@ -8414,13 +8747,13 @@
         <v>113</v>
       </c>
       <c r="V111" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W111" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="Z111" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -8434,13 +8767,16 @@
       <c r="AF111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:32">
+      <c r="AG111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33">
       <c r="A112" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8458,16 +8794,16 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J112" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R112">
         <v>111</v>
       </c>
       <c r="S112" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T112">
         <v>67</v>
@@ -8476,13 +8812,13 @@
         <v>115</v>
       </c>
       <c r="V112" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="W112" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="Z112" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -8496,13 +8832,16 @@
       <c r="AF112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:32">
+      <c r="AG112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33">
       <c r="A113" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B113" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8520,16 +8859,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J113" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R113">
         <v>112</v>
       </c>
       <c r="S113" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T113">
         <v>70</v>
@@ -8538,13 +8877,13 @@
         <v>119</v>
       </c>
       <c r="V113" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W113" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z113" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -8558,13 +8897,16 @@
       <c r="AF113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:32">
+      <c r="AG113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33">
       <c r="A114" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B114" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8582,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J114" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R114">
         <v>113</v>
       </c>
       <c r="S114" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T114">
         <v>70</v>
@@ -8600,13 +8942,13 @@
         <v>119</v>
       </c>
       <c r="V114" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W114" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z114" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -8620,13 +8962,16 @@
       <c r="AF114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:32">
+      <c r="AG114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33">
       <c r="A115" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B115" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8644,16 +8989,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J115" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R115">
         <v>114</v>
       </c>
       <c r="S115" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T115">
         <v>70</v>
@@ -8662,13 +9007,13 @@
         <v>119</v>
       </c>
       <c r="V115" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W115" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z115" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -8682,13 +9027,16 @@
       <c r="AF115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:32">
+      <c r="AG115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33">
       <c r="A116" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B116" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8706,16 +9054,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J116" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R116">
         <v>115</v>
       </c>
       <c r="S116" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T116">
         <v>70</v>
@@ -8724,13 +9072,13 @@
         <v>119</v>
       </c>
       <c r="V116" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W116" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z116" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -8744,13 +9092,16 @@
       <c r="AF116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:32">
+      <c r="AG116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33">
       <c r="A117" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B117" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8768,16 +9119,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J117" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R117">
         <v>116</v>
       </c>
       <c r="S117" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T117">
         <v>70</v>
@@ -8786,13 +9137,13 @@
         <v>119</v>
       </c>
       <c r="V117" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W117" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z117" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -8806,13 +9157,16 @@
       <c r="AF117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:32">
+      <c r="AG117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33">
       <c r="A118" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B118" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8830,16 +9184,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J118" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R118">
         <v>117</v>
       </c>
       <c r="S118" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T118">
         <v>70</v>
@@ -8848,13 +9202,13 @@
         <v>119</v>
       </c>
       <c r="V118" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W118" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z118" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -8868,13 +9222,16 @@
       <c r="AF118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:32">
+      <c r="AG118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33">
       <c r="A119" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B119" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -8892,16 +9249,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J119" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R119">
         <v>118</v>
       </c>
       <c r="S119" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T119">
         <v>70</v>
@@ -8910,13 +9267,13 @@
         <v>119</v>
       </c>
       <c r="V119" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W119" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z119" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -8930,13 +9287,16 @@
       <c r="AF119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:32">
+      <c r="AG119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33">
       <c r="A120" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B120" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -8954,16 +9314,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J120" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R120">
         <v>119</v>
       </c>
       <c r="S120" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T120">
         <v>70</v>
@@ -8972,13 +9332,13 @@
         <v>119</v>
       </c>
       <c r="V120" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W120" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z120" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -8992,13 +9352,16 @@
       <c r="AF120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:32">
+      <c r="AG120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33">
       <c r="A121" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B121" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9016,16 +9379,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J121" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R121">
         <v>120</v>
       </c>
       <c r="S121" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T121">
         <v>70</v>
@@ -9034,13 +9397,13 @@
         <v>119</v>
       </c>
       <c r="V121" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W121" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="Z121" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -9052,6 +9415,9 @@
         <v>0</v>
       </c>
       <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p19.xlsx
+++ b/files/separadas/repeat_p19.xlsx
@@ -6404,7 +6404,7 @@
         <v>353</v>
       </c>
       <c r="AC75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD75">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>0</v>
       </c>
       <c r="AF75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:33">

--- a/files/separadas/repeat_p19.xlsx
+++ b/files/separadas/repeat_p19.xlsx
@@ -6924,19 +6924,19 @@
         <v>353</v>
       </c>
       <c r="AC83">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD83">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE83">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF83">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG83">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="84" spans="1:33">
@@ -6989,19 +6989,19 @@
         <v>353</v>
       </c>
       <c r="AC84">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD84">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE84">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF84">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG84">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="85" spans="1:33">
@@ -7054,19 +7054,19 @@
         <v>353</v>
       </c>
       <c r="AC85">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD85">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE85">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF85">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG85">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="86" spans="1:33">

--- a/files/separadas/repeat_p19.xlsx
+++ b/files/separadas/repeat_p19.xlsx
@@ -6924,19 +6924,19 @@
         <v>353</v>
       </c>
       <c r="AC83">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD83">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE83">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF83">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG83">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:33">
@@ -6989,19 +6989,19 @@
         <v>353</v>
       </c>
       <c r="AC84">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD84">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE84">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF84">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG84">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:33">
@@ -7054,19 +7054,19 @@
         <v>353</v>
       </c>
       <c r="AC85">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD85">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE85">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF85">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG85">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:33">

--- a/files/separadas/repeat_p19.xlsx
+++ b/files/separadas/repeat_p19.xlsx
@@ -4896,7 +4896,7 @@
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="56">

--- a/files/separadas/repeat_p19.xlsx
+++ b/files/separadas/repeat_p19.xlsx
@@ -823,7 +823,7 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +902,7 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -1060,7 +1060,7 @@
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -1140,7 +1140,7 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -6954,7 +6954,7 @@
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82">
@@ -8472,7 +8472,7 @@
       <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -8551,7 +8551,7 @@
       <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="102">
@@ -8630,7 +8630,7 @@
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr"/>
       <c r="AC102" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="103">
@@ -9026,7 +9026,7 @@
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr"/>
       <c r="AC107" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="108">
@@ -9184,7 +9184,7 @@
       <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="inlineStr"/>
       <c r="AC109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
